--- a/data_indexpoints_tidy/tallmateriale_8952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_8952.xlsx
@@ -6813,6 +6813,9 @@
       <c r="L15">
         <v>-12.36</v>
       </c>
+      <c r="N15">
+        <v>3.48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7196,6 +7199,9 @@
       <c r="M22">
         <v>2.08</v>
       </c>
+      <c r="N22">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7483,6 +7489,9 @@
       <c r="M29">
         <v>2.69</v>
       </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7997,6 +8006,9 @@
       <c r="M43">
         <v>1.36</v>
       </c>
+      <c r="N43">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8236,6 +8248,9 @@
       <c r="M50">
         <v>-0.66</v>
       </c>
+      <c r="N50">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9965,21 +9980,6 @@
       <c r="H85">
         <v>-1.64</v>
       </c>
-      <c r="I85">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="J85">
-        <v>8.85</v>
-      </c>
-      <c r="K85">
-        <v>15.29</v>
-      </c>
-      <c r="L85">
-        <v>12.49</v>
-      </c>
-      <c r="M85">
-        <v>14.22</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10363,6 +10363,9 @@
       <c r="M92">
         <v>2.25</v>
       </c>
+      <c r="N92">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10632,6 +10635,9 @@
       <c r="M99">
         <v>2.6</v>
       </c>
+      <c r="N99">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10943,6 +10949,9 @@
       <c r="M106">
         <v>2.25</v>
       </c>
+      <c r="N106">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11326,6 +11335,9 @@
       <c r="M113">
         <v>2.74</v>
       </c>
+      <c r="N113">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11691,6 +11703,9 @@
       <c r="M120">
         <v>-0.06</v>
       </c>
+      <c r="N120">
+        <v>-3.26</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12074,6 +12089,9 @@
       <c r="M127">
         <v>2.27</v>
       </c>
+      <c r="N127">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12457,6 +12475,9 @@
       <c r="M134">
         <v>3.46</v>
       </c>
+      <c r="N134">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12834,6 +12855,9 @@
       <c r="M141">
         <v>-0.78</v>
       </c>
+      <c r="N141">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13139,6 +13163,9 @@
       <c r="L148">
         <v>19.52</v>
       </c>
+      <c r="N148">
+        <v>7.84</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13749,6 +13776,9 @@
       <c r="M162">
         <v>0.83</v>
       </c>
+      <c r="N162">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14690,6 +14720,9 @@
       <c r="M190">
         <v>2.59</v>
       </c>
+      <c r="N190">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15168,6 +15201,9 @@
       <c r="M204">
         <v>7.68</v>
       </c>
+      <c r="N204">
+        <v>6.74</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15518,6 +15554,9 @@
       <c r="M211">
         <v>1.1</v>
       </c>
+      <c r="N211">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15901,6 +15940,9 @@
       <c r="M218">
         <v>2.35</v>
       </c>
+      <c r="N218">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16260,6 +16302,9 @@
       <c r="M225">
         <v>6.33</v>
       </c>
+      <c r="N225">
+        <v>5.98</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16529,6 +16574,9 @@
       <c r="L232">
         <v>-1.7</v>
       </c>
+      <c r="N232">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17190,6 +17238,9 @@
       <c r="M246">
         <v>6.43</v>
       </c>
+      <c r="N246">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17573,6 +17624,9 @@
       <c r="M253">
         <v>5.9</v>
       </c>
+      <c r="N253">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17914,6 +17968,9 @@
       <c r="M260">
         <v>3.76</v>
       </c>
+      <c r="N260">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18255,6 +18312,9 @@
       <c r="M267">
         <v>4.41</v>
       </c>
+      <c r="N267">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18835,6 +18895,9 @@
       <c r="M281">
         <v>4.55</v>
       </c>
+      <c r="N281">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19113,6 +19176,9 @@
       <c r="L288">
         <v>4.19</v>
       </c>
+      <c r="N288">
+        <v>5.61</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -19496,6 +19562,9 @@
       <c r="M295">
         <v>2.68</v>
       </c>
+      <c r="N295">
+        <v>2.51</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -19831,6 +19900,9 @@
       <c r="M302">
         <v>4.54</v>
       </c>
+      <c r="N302">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -20435,6 +20507,9 @@
       <c r="M316">
         <v>1.45</v>
       </c>
+      <c r="N316">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21195,6 +21270,9 @@
       <c r="M330">
         <v>2.63</v>
       </c>
+      <c r="N330">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -21578,6 +21656,9 @@
       <c r="M337">
         <v>1.31</v>
       </c>
+      <c r="N337">
+        <v>6.35</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -22130,11 +22211,8 @@
       <c r="D358">
         <v>2025</v>
       </c>
-      <c r="K358">
-        <v>5.65</v>
-      </c>
-      <c r="L358">
-        <v>3.13</v>
+      <c r="N358">
+        <v>12.39</v>
       </c>
     </row>
     <row r="359">
@@ -22423,6 +22501,9 @@
       <c r="J365">
         <v>5.87</v>
       </c>
+      <c r="N365">
+        <v>-4.2</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -23209,6 +23290,9 @@
       <c r="M386">
         <v>4.71</v>
       </c>
+      <c r="N386">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -23861,21 +23945,6 @@
       <c r="H400">
         <v>1.86</v>
       </c>
-      <c r="I400">
-        <v>14.84</v>
-      </c>
-      <c r="J400">
-        <v>11.36</v>
-      </c>
-      <c r="K400">
-        <v>15.55</v>
-      </c>
-      <c r="L400">
-        <v>11.17</v>
-      </c>
-      <c r="M400">
-        <v>14.2</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -24259,6 +24328,9 @@
       <c r="M407">
         <v>1.88</v>
       </c>
+      <c r="N407">
+        <v>-1.05</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -25164,6 +25236,9 @@
       <c r="M435">
         <v>2.35</v>
       </c>
+      <c r="N435">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -25651,6 +25726,9 @@
       <c r="M449">
         <v>-3.01</v>
       </c>
+      <c r="N449">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -26339,6 +26417,9 @@
       <c r="M463">
         <v>1.59</v>
       </c>
+      <c r="N463">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -26716,6 +26797,9 @@
       <c r="M470">
         <v>2.05</v>
       </c>
+      <c r="N470">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -27099,6 +27183,9 @@
       <c r="M477">
         <v>1.86</v>
       </c>
+      <c r="N477">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -28573,6 +28660,9 @@
       <c r="M512">
         <v>-9.41</v>
       </c>
+      <c r="N512">
+        <v>-6.54</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -29571,6 +29661,9 @@
       <c r="M540">
         <v>-5</v>
       </c>
+      <c r="N540">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -29897,6 +29990,9 @@
       <c r="M547">
         <v>8.34</v>
       </c>
+      <c r="N547">
+        <v>6.66</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -30163,6 +30259,9 @@
       <c r="M554">
         <v>5.84</v>
       </c>
+      <c r="N554">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -30528,6 +30627,9 @@
       <c r="M561">
         <v>3.62</v>
       </c>
+      <c r="N561">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -31165,6 +31267,9 @@
       <c r="M575">
         <v>3.95</v>
       </c>
+      <c r="N575">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -31475,6 +31580,9 @@
       </c>
       <c r="M582">
         <v>4.24</v>
+      </c>
+      <c r="N582">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -31582,7 +31690,7 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <v>0.497340668255897</v>
+        <v>0.5073520678096796</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -31636,7 +31744,7 @@
         <v>62</v>
       </c>
       <c r="G3">
-        <v>0.9643730449793348</v>
+        <v>0.983798562230643</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -31690,7 +31798,7 @@
         <v>68</v>
       </c>
       <c r="G4">
-        <v>0.4052439460991413</v>
+        <v>0.4078388791988273</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -31744,7 +31852,7 @@
         <v>61</v>
       </c>
       <c r="G5">
-        <v>0.9210022660724135</v>
+        <v>0.9250549950002147</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -31798,7 +31906,7 @@
         <v>50</v>
       </c>
       <c r="G6">
-        <v>0.5634376139504668</v>
+        <v>0.5655586753339769</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -31852,7 +31960,7 @@
         <v>60</v>
       </c>
       <c r="G7">
-        <v>0.5372872020985361</v>
+        <v>0.5387495292489329</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -31894,19 +32002,19 @@
         <v>2025</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="E8">
-        <v>1.0241</v>
+        <v>1.0227</v>
       </c>
       <c r="F8">
         <v>59</v>
       </c>
       <c r="G8">
-        <v>0.3815354753654976</v>
+        <v>0.3247633623840482</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -31925,19 +32033,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>okt</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>jan-sep</t>
+          <t>jan-okt</t>
         </is>
       </c>
       <c r="M8">
         <v>1.7</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -31960,7 +32068,7 @@
         <v>66</v>
       </c>
       <c r="G9">
-        <v>1.052809323716134</v>
+        <v>1.074014036538114</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -32014,7 +32122,7 @@
         <v>68</v>
       </c>
       <c r="G10">
-        <v>1.170245283746323</v>
+        <v>1.192247622024739</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -32068,7 +32176,7 @@
         <v>68</v>
       </c>
       <c r="G11">
-        <v>1.497299200211656</v>
+        <v>1.518047395374906</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -32096,10 +32204,10 @@
         </is>
       </c>
       <c r="M11">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="N11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12">
@@ -32122,7 +32230,7 @@
         <v>68</v>
       </c>
       <c r="G12">
-        <v>1.614310891760848</v>
+        <v>1.634748930689931</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -32176,7 +32284,7 @@
         <v>68</v>
       </c>
       <c r="G13">
-        <v>1.701022453508999</v>
+        <v>1.720877505405956</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -32204,10 +32312,10 @@
         </is>
       </c>
       <c r="M13">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="N13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -32217,7 +32325,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34905,10 +35013,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.9986895111334971</v>
+        <v>0.9986573041938215</v>
       </c>
       <c r="B60">
-        <v>-0.1310488866502868</v>
+        <v>-0.1342695806178518</v>
       </c>
       <c r="C60">
         <v>44</v>
@@ -34917,10 +35025,10 @@
         <v>29.56120840394442</v>
       </c>
       <c r="E60">
-        <v>7.464022887602491</v>
+        <v>7.461846440726015</v>
       </c>
       <c r="F60">
-        <v>1.37281454175671</v>
+        <v>1.372414240475969</v>
       </c>
       <c r="G60">
         <v>-2.9</v>
@@ -34950,10 +35058,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.9992617165994042</v>
+        <v>0.999178458693204</v>
       </c>
       <c r="B61">
-        <v>-0.0738283400595785</v>
+        <v>-0.08215413067960142</v>
       </c>
       <c r="C61">
         <v>44</v>
@@ -34962,16 +35070,16 @@
         <v>29.56120840394442</v>
       </c>
       <c r="E61">
-        <v>7.623150194514171</v>
+        <v>7.617488313687996</v>
       </c>
       <c r="F61">
-        <v>1.402081906582424</v>
+        <v>1.40104054960256</v>
       </c>
       <c r="G61">
         <v>-2.9</v>
       </c>
       <c r="H61">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -34995,10 +35103,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.001488936172189</v>
+        <v>1.001385234681751</v>
       </c>
       <c r="B62">
-        <v>0.1488936172189037</v>
+        <v>0.1385234681750669</v>
       </c>
       <c r="C62">
         <v>44</v>
@@ -35007,10 +35115,10 @@
         <v>29.56120840394442</v>
       </c>
       <c r="E62">
-        <v>7.694632257183772</v>
+        <v>7.686831623026722</v>
       </c>
       <c r="F62">
-        <v>1.415229188763269</v>
+        <v>1.413794463258406</v>
       </c>
       <c r="G62">
         <v>-2.7</v>
@@ -35040,10 +35148,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.00523494544444</v>
+        <v>1.005139553415617</v>
       </c>
       <c r="B63">
-        <v>0.5234945444440253</v>
+        <v>0.5139553415616671</v>
       </c>
       <c r="C63">
         <v>45</v>
@@ -35052,10 +35160,10 @@
         <v>30.23781712220733</v>
       </c>
       <c r="E63">
-        <v>7.770658110655379</v>
+        <v>7.763053794431182</v>
       </c>
       <c r="F63">
-        <v>1.413131519992796</v>
+        <v>1.411748638544226</v>
       </c>
       <c r="G63">
         <v>-2.3</v>
@@ -35085,10 +35193,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.008277634280849</v>
+        <v>1.008185029925074</v>
       </c>
       <c r="B64">
-        <v>0.8277634280849044</v>
+        <v>0.8185029925074083</v>
       </c>
       <c r="C64">
         <v>44</v>
@@ -35097,10 +35205,10 @@
         <v>29.82301881546182</v>
       </c>
       <c r="E64">
-        <v>7.750022041198647</v>
+        <v>7.742502043826215</v>
       </c>
       <c r="F64">
-        <v>1.419146192637479</v>
+        <v>1.41776916743897</v>
       </c>
       <c r="G64">
         <v>-2</v>
@@ -35130,10 +35238,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.014581258109245</v>
+        <v>1.014492387403889</v>
       </c>
       <c r="B65">
-        <v>1.458125810924549</v>
+        <v>1.449238740388914</v>
       </c>
       <c r="C65">
         <v>44</v>
@@ -35142,10 +35250,10 @@
         <v>29.82301881546182</v>
       </c>
       <c r="E65">
-        <v>7.908764709261421</v>
+        <v>7.901938921810879</v>
       </c>
       <c r="F65">
-        <v>1.448214374868811</v>
+        <v>1.446964470001354</v>
       </c>
       <c r="G65">
         <v>-1.5</v>
@@ -35175,10 +35283,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.014268730420703</v>
+        <v>1.014168968453651</v>
       </c>
       <c r="B66">
-        <v>1.426873042070298</v>
+        <v>1.416896845365101</v>
       </c>
       <c r="C66">
         <v>44</v>
@@ -35187,16 +35295,16 @@
         <v>29.46171167590766</v>
       </c>
       <c r="E66">
-        <v>8.148039989603669</v>
+        <v>8.141944468777398</v>
       </c>
       <c r="F66">
-        <v>1.501150254745651</v>
+        <v>1.500027249378368</v>
       </c>
       <c r="G66">
         <v>-1.6</v>
       </c>
       <c r="H66">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -35220,10 +35328,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.016869748176592</v>
+        <v>1.01677048327963</v>
       </c>
       <c r="B67">
-        <v>1.686974817659226</v>
+        <v>1.677048327963049</v>
       </c>
       <c r="C67">
         <v>44</v>
@@ -35232,10 +35340,10 @@
         <v>29.46171167590766</v>
       </c>
       <c r="E67">
-        <v>8.289218732493167</v>
+        <v>8.283511217325191</v>
       </c>
       <c r="F67">
-        <v>1.52716025299353</v>
+        <v>1.526108731663333</v>
       </c>
       <c r="G67">
         <v>-1.4</v>
@@ -35265,10 +35373,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.015640110247679</v>
+        <v>1.015540208218173</v>
       </c>
       <c r="B68">
-        <v>1.564011024767931</v>
+        <v>1.554020821817303</v>
       </c>
       <c r="C68">
         <v>45</v>
@@ -35277,10 +35385,10 @@
         <v>30.45641673879711</v>
       </c>
       <c r="E68">
-        <v>8.367924807223909</v>
+        <v>8.362607167986587</v>
       </c>
       <c r="F68">
-        <v>1.516276366462574</v>
+        <v>1.515312804900218</v>
       </c>
       <c r="G68">
         <v>-1.5</v>
@@ -35310,10 +35418,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.017338202913032</v>
+        <v>1.017237915347474</v>
       </c>
       <c r="B69">
-        <v>1.733820291303223</v>
+        <v>1.723791534747399</v>
       </c>
       <c r="C69">
         <v>45</v>
@@ -35322,13 +35430,13 @@
         <v>30.45641673879711</v>
       </c>
       <c r="E69">
-        <v>8.437258034110828</v>
+        <v>8.432226826769156</v>
       </c>
       <c r="F69">
-        <v>1.528839616702163</v>
+        <v>1.527927956886535</v>
       </c>
       <c r="G69">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="H69">
         <v>4.8</v>
@@ -35355,10 +35463,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.019576304535755</v>
+        <v>1.019478571146542</v>
       </c>
       <c r="B70">
-        <v>1.957630453575487</v>
+        <v>1.947857114654172</v>
       </c>
       <c r="C70">
         <v>45</v>
@@ -35367,10 +35475,10 @@
         <v>30.45641673879711</v>
       </c>
       <c r="E70">
-        <v>8.459486075289298</v>
+        <v>8.454514141167802</v>
       </c>
       <c r="F70">
-        <v>1.532867360054085</v>
+        <v>1.531966440605391</v>
       </c>
       <c r="G70">
         <v>-1.1</v>
@@ -35400,10 +35508,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.02194954968802</v>
+        <v>1.021845551337961</v>
       </c>
       <c r="B71">
-        <v>2.194954968802043</v>
+        <v>2.184555133796051</v>
       </c>
       <c r="C71">
         <v>45</v>
@@ -35412,10 +35520,10 @@
         <v>30.45641673879711</v>
       </c>
       <c r="E71">
-        <v>8.515857326404586</v>
+        <v>8.511807071898513</v>
       </c>
       <c r="F71">
-        <v>1.543081887285525</v>
+        <v>1.542347977107411</v>
       </c>
       <c r="G71">
         <v>-0.9</v>
@@ -35445,87 +35553,87 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.9435619957881136</v>
+        <v>1.035304050507679</v>
       </c>
       <c r="B72">
-        <v>-5.643800421188638</v>
+        <v>3.530405050767893</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D72">
-        <v>38.03300323932102</v>
+        <v>31.40549672086293</v>
       </c>
       <c r="E72">
-        <v>4.666307731917997</v>
+        <v>10.19269467682361</v>
       </c>
       <c r="F72">
-        <v>0.7566465668625433</v>
+        <v>1.818805176981749</v>
       </c>
       <c r="G72">
-        <v>-7.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H72">
-        <v>-4.1</v>
+        <v>7.2</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2018 - (jan 2019 - des 2020)</t>
+          <t>2018 - (nov 2024 - okt 2025)</t>
         </is>
       </c>
       <c r="J72" s="2">
-        <v>44166</v>
+        <v>45931</v>
       </c>
       <c r="K72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L72">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.9385064955547823</v>
+        <v>0.9435619957881136</v>
       </c>
       <c r="B73">
-        <v>-6.149350444521772</v>
+        <v>-5.643800421188638</v>
       </c>
       <c r="C73">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D73">
-        <v>36.58056013589703</v>
+        <v>38.03300323932102</v>
       </c>
       <c r="E73">
-        <v>4.966166118153592</v>
+        <v>4.666307731917997</v>
       </c>
       <c r="F73">
-        <v>0.8211000280453438</v>
+        <v>0.7566465668625433</v>
       </c>
       <c r="G73">
-        <v>-7.8</v>
+        <v>-7.2</v>
       </c>
       <c r="H73">
-        <v>-4.5</v>
+        <v>-4.1</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2018 - (feb 2019 - jan 2021)</t>
+          <t>2018 - (jan 2019 - des 2020)</t>
         </is>
       </c>
       <c r="J73" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -35535,10 +35643,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.9329462868127812</v>
+        <v>0.9385064955547823</v>
       </c>
       <c r="B74">
-        <v>-6.705371318721875</v>
+        <v>-6.149350444521772</v>
       </c>
       <c r="C74">
         <v>59</v>
@@ -35547,27 +35655,27 @@
         <v>36.58056013589703</v>
       </c>
       <c r="E74">
-        <v>5.294673782390291</v>
+        <v>4.966166118153592</v>
       </c>
       <c r="F74">
-        <v>0.8754150964301588</v>
+        <v>0.8211000280453438</v>
       </c>
       <c r="G74">
-        <v>-8.5</v>
+        <v>-7.8</v>
       </c>
       <c r="H74">
-        <v>-5</v>
+        <v>-4.5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2018 - (mar 2019 - feb 2021)</t>
+          <t>2018 - (feb 2019 - jan 2021)</t>
         </is>
       </c>
       <c r="J74" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>2021</v>
@@ -35580,10 +35688,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.9293252429437762</v>
+        <v>0.9329462868127812</v>
       </c>
       <c r="B75">
-        <v>-7.067475705622384</v>
+        <v>-6.705371318721875</v>
       </c>
       <c r="C75">
         <v>59</v>
@@ -35592,27 +35700,27 @@
         <v>36.58056013589703</v>
       </c>
       <c r="E75">
-        <v>5.670479347090844</v>
+        <v>5.294673782390291</v>
       </c>
       <c r="F75">
-        <v>0.9375503436961016</v>
+        <v>0.8754150964301588</v>
       </c>
       <c r="G75">
-        <v>-8.9</v>
+        <v>-8.5</v>
       </c>
       <c r="H75">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2018 - (apr 2019 - mar 2021)</t>
+          <t>2018 - (mar 2019 - feb 2021)</t>
         </is>
       </c>
       <c r="J75" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <v>2021</v>
@@ -35625,10 +35733,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.9264122641695726</v>
+        <v>0.9293252429437762</v>
       </c>
       <c r="B76">
-        <v>-7.358773583042744</v>
+        <v>-7.067475705622384</v>
       </c>
       <c r="C76">
         <v>59</v>
@@ -35637,27 +35745,27 @@
         <v>36.58056013589703</v>
       </c>
       <c r="E76">
-        <v>5.973090059896906</v>
+        <v>5.670479347090844</v>
       </c>
       <c r="F76">
-        <v>0.9875836407828814</v>
+        <v>0.9375503436961016</v>
       </c>
       <c r="G76">
-        <v>-9.300000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="H76">
-        <v>-5.4</v>
+        <v>-5.2</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2018 - (mai 2019 - apr 2021)</t>
+          <t>2018 - (apr 2019 - mar 2021)</t>
         </is>
       </c>
       <c r="J76" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L76">
         <v>2021</v>
@@ -35670,39 +35778,39 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.9237955261453017</v>
+        <v>0.9264122641695726</v>
       </c>
       <c r="B77">
-        <v>-7.620447385469831</v>
+        <v>-7.358773583042744</v>
       </c>
       <c r="C77">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D77">
-        <v>35.82755803877059</v>
+        <v>36.58056013589703</v>
       </c>
       <c r="E77">
-        <v>6.254253096998752</v>
+        <v>5.973090059896906</v>
       </c>
       <c r="F77">
-        <v>1.044881038715031</v>
+        <v>0.9875836407828814</v>
       </c>
       <c r="G77">
-        <v>-9.699999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="H77">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2018 - (jun 2019 - mai 2021)</t>
+          <t>2018 - (mai 2019 - apr 2021)</t>
         </is>
       </c>
       <c r="J77" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L77">
         <v>2021</v>
@@ -35715,39 +35823,39 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.9248833366150494</v>
+        <v>0.9237955261453017</v>
       </c>
       <c r="B78">
-        <v>-7.511666338495059</v>
+        <v>-7.620447385469831</v>
       </c>
       <c r="C78">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D78">
-        <v>35.80868498407199</v>
+        <v>35.82755803877059</v>
       </c>
       <c r="E78">
-        <v>6.595538913396254</v>
+        <v>6.254253096998752</v>
       </c>
       <c r="F78">
-        <v>1.102189071919424</v>
+        <v>1.044881038715031</v>
       </c>
       <c r="G78">
         <v>-9.699999999999999</v>
       </c>
       <c r="H78">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2018 - (jul 2019 - jun 2021)</t>
+          <t>2018 - (jun 2019 - mai 2021)</t>
         </is>
       </c>
       <c r="J78" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="K78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L78">
         <v>2021</v>
@@ -35760,39 +35868,39 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.9268591437218143</v>
+        <v>0.9248833366150494</v>
       </c>
       <c r="B79">
-        <v>-7.314085627818567</v>
+        <v>-7.511666338495059</v>
       </c>
       <c r="C79">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79">
-        <v>35.78977076793692</v>
+        <v>35.80868498407199</v>
       </c>
       <c r="E79">
-        <v>6.885252938146117</v>
+        <v>6.595538913396254</v>
       </c>
       <c r="F79">
-        <v>1.150907554717771</v>
+        <v>1.102189071919424</v>
       </c>
       <c r="G79">
-        <v>-9.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H79">
-        <v>-5</v>
+        <v>-5.3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2018 - (aug 2019 - jul 2021)</t>
+          <t>2018 - (jul 2019 - jun 2021)</t>
         </is>
       </c>
       <c r="J79" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="K79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L79">
         <v>2021</v>
@@ -35805,10 +35913,10 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.9270041625807662</v>
+        <v>0.9268591437218143</v>
       </c>
       <c r="B80">
-        <v>-7.299583741923376</v>
+        <v>-7.314085627818567</v>
       </c>
       <c r="C80">
         <v>55</v>
@@ -35817,27 +35925,27 @@
         <v>35.78977076793692</v>
       </c>
       <c r="E80">
-        <v>7.13528689742766</v>
+        <v>6.885252938146117</v>
       </c>
       <c r="F80">
-        <v>1.192702093750436</v>
+        <v>1.150907554717771</v>
       </c>
       <c r="G80">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="H80">
-        <v>-4.9</v>
+        <v>-5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2018 - (sep 2019 - aug 2021)</t>
+          <t>2018 - (aug 2019 - jul 2021)</t>
         </is>
       </c>
       <c r="J80" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="K80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L80">
         <v>2021</v>
@@ -35850,39 +35958,39 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.9271278404274514</v>
+        <v>0.9270041625807662</v>
       </c>
       <c r="B81">
-        <v>-7.287215957254856</v>
+        <v>-7.299583741923376</v>
       </c>
       <c r="C81">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D81">
-        <v>34.85651430266763</v>
+        <v>35.78977076793692</v>
       </c>
       <c r="E81">
-        <v>7.410747376406461</v>
+        <v>7.13528689742766</v>
       </c>
       <c r="F81">
-        <v>1.255220523204333</v>
+        <v>1.192702093750436</v>
       </c>
       <c r="G81">
-        <v>-9.800000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H81">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2018 - (okt 2019 - sep 2021)</t>
+          <t>2018 - (sep 2019 - aug 2021)</t>
         </is>
       </c>
       <c r="J81" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="K81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L81">
         <v>2021</v>
@@ -35895,39 +36003,39 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.9267024430770325</v>
+        <v>0.9271278404274514</v>
       </c>
       <c r="B82">
-        <v>-7.329755692296747</v>
+        <v>-7.287215957254856</v>
       </c>
       <c r="C82">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D82">
-        <v>32.6479993493452</v>
+        <v>34.85651430266763</v>
       </c>
       <c r="E82">
-        <v>7.65942703071017</v>
+        <v>7.410747376406461</v>
       </c>
       <c r="F82">
-        <v>1.340503636788819</v>
+        <v>1.255220523204333</v>
       </c>
       <c r="G82">
-        <v>-10</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H82">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2018 - (nov 2019 - okt 2021)</t>
+          <t>2018 - (okt 2019 - sep 2021)</t>
         </is>
       </c>
       <c r="J82" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="K82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L82">
         <v>2021</v>
@@ -35940,10 +36048,10 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.9273399631928078</v>
+        <v>0.9267024430770325</v>
       </c>
       <c r="B83">
-        <v>-7.266003680719225</v>
+        <v>-7.329755692296747</v>
       </c>
       <c r="C83">
         <v>49</v>
@@ -35952,27 +36060,27 @@
         <v>32.6479993493452</v>
       </c>
       <c r="E83">
-        <v>7.809251724433682</v>
+        <v>7.65942703071017</v>
       </c>
       <c r="F83">
-        <v>1.36672499068538</v>
+        <v>1.340503636788819</v>
       </c>
       <c r="G83">
         <v>-10</v>
       </c>
       <c r="H83">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2018 - (des 2019 - nov 2021)</t>
+          <t>2018 - (nov 2019 - okt 2021)</t>
         </is>
       </c>
       <c r="J83" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="K83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L83">
         <v>2021</v>
@@ -35985,10 +36093,10 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.9268041867594333</v>
+        <v>0.9273399631928078</v>
       </c>
       <c r="B84">
-        <v>-7.319581324056667</v>
+        <v>-7.266003680719225</v>
       </c>
       <c r="C84">
         <v>49</v>
@@ -35997,27 +36105,27 @@
         <v>32.6479993493452</v>
       </c>
       <c r="E84">
-        <v>7.921594805196648</v>
+        <v>7.809251724433682</v>
       </c>
       <c r="F84">
-        <v>1.386386553845001</v>
+        <v>1.36672499068538</v>
       </c>
       <c r="G84">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="H84">
         <v>-4.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2018 - (jan 2020 - des 2021)</t>
+          <t>2018 - (des 2019 - nov 2021)</t>
         </is>
       </c>
       <c r="J84" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="K84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L84">
         <v>2021</v>
@@ -36030,42 +36138,42 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.9235418953613235</v>
+        <v>0.9268041867594333</v>
       </c>
       <c r="B85">
-        <v>-7.645810463867653</v>
+        <v>-7.319581324056667</v>
       </c>
       <c r="C85">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D85">
-        <v>31.81471064843783</v>
+        <v>32.6479993493452</v>
       </c>
       <c r="E85">
-        <v>8.144392550325302</v>
+        <v>7.921594805196648</v>
       </c>
       <c r="F85">
-        <v>1.443925243790464</v>
+        <v>1.386386553845001</v>
       </c>
       <c r="G85">
-        <v>-10.6</v>
+        <v>-10.1</v>
       </c>
       <c r="H85">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2018 - (feb 2020 - jan 2022)</t>
+          <t>2018 - (jan 2020 - des 2021)</t>
         </is>
       </c>
       <c r="J85" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L85">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -36075,39 +36183,39 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.9238084421094064</v>
+        <v>0.9235418953613235</v>
       </c>
       <c r="B86">
-        <v>-7.619155789059362</v>
+        <v>-7.645810463867653</v>
       </c>
       <c r="C86">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D86">
-        <v>31.57469608673373</v>
+        <v>31.81471064843783</v>
       </c>
       <c r="E86">
-        <v>7.681624347801789</v>
+        <v>8.144392550325302</v>
       </c>
       <c r="F86">
-        <v>1.367047092786292</v>
+        <v>1.443925243790464</v>
       </c>
       <c r="G86">
-        <v>-10.4</v>
+        <v>-10.6</v>
       </c>
       <c r="H86">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2018 - (mar 2020 - feb 2022)</t>
+          <t>2018 - (feb 2020 - jan 2022)</t>
         </is>
       </c>
       <c r="J86" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>2022</v>
@@ -36120,10 +36228,10 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.9349104769789275</v>
+        <v>0.9238084421094064</v>
       </c>
       <c r="B87">
-        <v>-6.508952302107252</v>
+        <v>-7.619155789059362</v>
       </c>
       <c r="C87">
         <v>47</v>
@@ -36132,27 +36240,27 @@
         <v>31.57469608673373</v>
       </c>
       <c r="E87">
-        <v>7.696756965499445</v>
+        <v>7.681624347801789</v>
       </c>
       <c r="F87">
-        <v>1.369740143122156</v>
+        <v>1.367047092786292</v>
       </c>
       <c r="G87">
-        <v>-9.300000000000001</v>
+        <v>-10.4</v>
       </c>
       <c r="H87">
-        <v>-3.8</v>
+        <v>-4.9</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2018 - (apr 2020 - mar 2022)</t>
+          <t>2018 - (mar 2020 - feb 2022)</t>
         </is>
       </c>
       <c r="J87" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L87">
         <v>2022</v>
@@ -36165,10 +36273,10 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.9447718307218511</v>
+        <v>0.9349104769789275</v>
       </c>
       <c r="B88">
-        <v>-5.522816927814889</v>
+        <v>-6.508952302107252</v>
       </c>
       <c r="C88">
         <v>47</v>
@@ -36177,27 +36285,27 @@
         <v>31.57469608673373</v>
       </c>
       <c r="E88">
-        <v>7.497967603901046</v>
+        <v>7.696756965499445</v>
       </c>
       <c r="F88">
-        <v>1.3343629355752</v>
+        <v>1.369740143122156</v>
       </c>
       <c r="G88">
-        <v>-8.199999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="H88">
-        <v>-2.8</v>
+        <v>-3.8</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2018 - (mai 2020 - apr 2022)</t>
+          <t>2018 - (apr 2020 - mar 2022)</t>
         </is>
       </c>
       <c r="J88" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>2022</v>
@@ -36210,39 +36318,39 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.9517589153632563</v>
+        <v>0.9447718307218511</v>
       </c>
       <c r="B89">
-        <v>-4.824108463674371</v>
+        <v>-5.522816927814889</v>
       </c>
       <c r="C89">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D89">
-        <v>31.39521548745484</v>
+        <v>31.57469608673373</v>
       </c>
       <c r="E89">
-        <v>7.230712348075286</v>
+        <v>7.497967603901046</v>
       </c>
       <c r="F89">
-        <v>1.290474272459774</v>
+        <v>1.3343629355752</v>
       </c>
       <c r="G89">
-        <v>-7.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="H89">
-        <v>-2.2</v>
+        <v>-2.8</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2018 - (jun 2020 - mai 2022)</t>
+          <t>2018 - (mai 2020 - apr 2022)</t>
         </is>
       </c>
       <c r="J89" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L89">
         <v>2022</v>
@@ -36255,10 +36363,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.9540299269999607</v>
+        <v>0.9517589153632563</v>
       </c>
       <c r="B90">
-        <v>-4.597007300003931</v>
+        <v>-4.824108463674371</v>
       </c>
       <c r="C90">
         <v>46</v>
@@ -36267,27 +36375,27 @@
         <v>31.39521548745484</v>
       </c>
       <c r="E90">
-        <v>6.918842652536483</v>
+        <v>7.230712348075286</v>
       </c>
       <c r="F90">
-        <v>1.234814498003415</v>
+        <v>1.290474272459774</v>
       </c>
       <c r="G90">
-        <v>-7.1</v>
+        <v>-7.4</v>
       </c>
       <c r="H90">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2018 - (jul 2020 - jun 2022)</t>
+          <t>2018 - (jun 2020 - mai 2022)</t>
         </is>
       </c>
       <c r="J90" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L90">
         <v>2022</v>
@@ -36300,39 +36408,39 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.9519763046536416</v>
+        <v>0.9540299269999607</v>
       </c>
       <c r="B91">
-        <v>-4.802369534635842</v>
+        <v>-4.597007300003931</v>
       </c>
       <c r="C91">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D91">
-        <v>31.21739506991733</v>
+        <v>31.39521548745484</v>
       </c>
       <c r="E91">
-        <v>6.665354502393559</v>
+        <v>6.918842652536483</v>
       </c>
       <c r="F91">
-        <v>1.192957363997749</v>
+        <v>1.234814498003415</v>
       </c>
       <c r="G91">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="H91">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2018 - (aug 2020 - jul 2022)</t>
+          <t>2018 - (jul 2020 - jun 2022)</t>
         </is>
       </c>
       <c r="J91" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L91">
         <v>2022</v>
@@ -36345,10 +36453,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.9541404010342216</v>
+        <v>0.9519763046536416</v>
       </c>
       <c r="B92">
-        <v>-4.58595989657784</v>
+        <v>-4.802369534635842</v>
       </c>
       <c r="C92">
         <v>45</v>
@@ -36357,27 +36465,27 @@
         <v>31.21739506991733</v>
       </c>
       <c r="E92">
-        <v>6.474224931030402</v>
+        <v>6.665354502393559</v>
       </c>
       <c r="F92">
-        <v>1.158749216546097</v>
+        <v>1.192957363997749</v>
       </c>
       <c r="G92">
-        <v>-6.9</v>
+        <v>-7.2</v>
       </c>
       <c r="H92">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2018 - (sep 2020 - aug 2022)</t>
+          <t>2018 - (aug 2020 - jul 2022)</t>
         </is>
       </c>
       <c r="J92" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L92">
         <v>2022</v>
@@ -36390,10 +36498,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.957996788828931</v>
+        <v>0.9541404010342216</v>
       </c>
       <c r="B93">
-        <v>-4.200321117106897</v>
+        <v>-4.58595989657784</v>
       </c>
       <c r="C93">
         <v>45</v>
@@ -36402,27 +36510,27 @@
         <v>31.21739506991733</v>
       </c>
       <c r="E93">
-        <v>6.267794612067071</v>
+        <v>6.474224931030402</v>
       </c>
       <c r="F93">
-        <v>1.121802559159566</v>
+        <v>1.158749216546097</v>
       </c>
       <c r="G93">
-        <v>-6.5</v>
+        <v>-6.9</v>
       </c>
       <c r="H93">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2018 - (okt 2020 - sep 2022)</t>
+          <t>2018 - (sep 2020 - aug 2022)</t>
         </is>
       </c>
       <c r="J93" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L93">
         <v>2022</v>
@@ -36435,39 +36543,39 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.95594685629496</v>
+        <v>0.957996788828931</v>
       </c>
       <c r="B94">
-        <v>-4.405314370503999</v>
+        <v>-4.200321117106897</v>
       </c>
       <c r="C94">
         <v>45</v>
       </c>
       <c r="D94">
-        <v>30.69309999474111</v>
+        <v>31.21739506991733</v>
       </c>
       <c r="E94">
-        <v>6.082676006752431</v>
+        <v>6.267794612067071</v>
       </c>
       <c r="F94">
-        <v>1.09792912860554</v>
+        <v>1.121802559159566</v>
       </c>
       <c r="G94">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="H94">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2018 - (nov 2020 - okt 2022)</t>
+          <t>2018 - (okt 2020 - sep 2022)</t>
         </is>
       </c>
       <c r="J94" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L94">
         <v>2022</v>
@@ -36480,39 +36588,39 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.9672323161553165</v>
+        <v>0.95594685629496</v>
       </c>
       <c r="B95">
-        <v>-3.276768384468354</v>
+        <v>-4.405314370503999</v>
       </c>
       <c r="C95">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95">
-        <v>29.71721842461514</v>
+        <v>30.69309999474111</v>
       </c>
       <c r="E95">
-        <v>5.766087768430705</v>
+        <v>6.082676006752431</v>
       </c>
       <c r="F95">
-        <v>1.057735719225512</v>
+        <v>1.09792912860554</v>
       </c>
       <c r="G95">
-        <v>-5.4</v>
+        <v>-6.6</v>
       </c>
       <c r="H95">
-        <v>-1.1</v>
+        <v>-2.2</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2018 - (des 2020 - nov 2022)</t>
+          <t>2018 - (nov 2020 - okt 2022)</t>
         </is>
       </c>
       <c r="J95" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L95">
         <v>2022</v>
@@ -36525,10 +36633,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.969743697803606</v>
+        <v>0.9672323161553165</v>
       </c>
       <c r="B96">
-        <v>-3.025630219639397</v>
+        <v>-3.276768384468354</v>
       </c>
       <c r="C96">
         <v>44</v>
@@ -36537,27 +36645,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E96">
-        <v>5.66036798551395</v>
+        <v>5.766087768430705</v>
       </c>
       <c r="F96">
-        <v>1.038342398292721</v>
+        <v>1.057735719225512</v>
       </c>
       <c r="G96">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="H96">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2018 - (jan 2021 - des 2022)</t>
+          <t>2018 - (des 2020 - nov 2022)</t>
         </is>
       </c>
       <c r="J96" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K96">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L96">
         <v>2022</v>
@@ -36570,10 +36678,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.9750167137235498</v>
+        <v>0.969743697803606</v>
       </c>
       <c r="B97">
-        <v>-2.498328627645019</v>
+        <v>-3.025630219639397</v>
       </c>
       <c r="C97">
         <v>44</v>
@@ -36582,30 +36690,30 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E97">
-        <v>5.634340401003049</v>
+        <v>5.66036798551395</v>
       </c>
       <c r="F97">
-        <v>1.03356787752093</v>
+        <v>1.038342398292721</v>
       </c>
       <c r="G97">
-        <v>-4.6</v>
+        <v>-5.1</v>
       </c>
       <c r="H97">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2018 - (feb 2021 - jan 2023)</t>
+          <t>2018 - (jan 2021 - des 2022)</t>
         </is>
       </c>
       <c r="J97" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L97">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -36615,10 +36723,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.98085159524368</v>
+        <v>0.9750167137235498</v>
       </c>
       <c r="B98">
-        <v>-1.914840475631996</v>
+        <v>-2.498328627645019</v>
       </c>
       <c r="C98">
         <v>44</v>
@@ -36627,27 +36735,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E98">
-        <v>5.624612713484307</v>
+        <v>5.634340401003049</v>
       </c>
       <c r="F98">
-        <v>1.031783422797509</v>
+        <v>1.03356787752093</v>
       </c>
       <c r="G98">
-        <v>-4</v>
+        <v>-4.6</v>
       </c>
       <c r="H98">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2018 - (mar 2021 - feb 2023)</t>
+          <t>2018 - (feb 2021 - jan 2023)</t>
         </is>
       </c>
       <c r="J98" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>2023</v>
@@ -36660,10 +36768,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.9847110917485106</v>
+        <v>0.98085159524368</v>
       </c>
       <c r="B99">
-        <v>-1.528890825148943</v>
+        <v>-1.914840475631996</v>
       </c>
       <c r="C99">
         <v>44</v>
@@ -36672,27 +36780,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E99">
-        <v>5.563825817691316</v>
+        <v>5.624612713484307</v>
       </c>
       <c r="F99">
-        <v>1.020632626360953</v>
+        <v>1.031783422797509</v>
       </c>
       <c r="G99">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="H99">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2018 - (apr 2021 - mar 2023)</t>
+          <t>2018 - (mar 2021 - feb 2023)</t>
         </is>
       </c>
       <c r="J99" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>2023</v>
@@ -36705,10 +36813,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9874267754827455</v>
+        <v>0.9847110917485106</v>
       </c>
       <c r="B100">
-        <v>-1.257322451725451</v>
+        <v>-1.528890825148943</v>
       </c>
       <c r="C100">
         <v>44</v>
@@ -36717,27 +36825,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E100">
-        <v>5.507009871652307</v>
+        <v>5.563825817691316</v>
       </c>
       <c r="F100">
-        <v>1.010210264100691</v>
+        <v>1.020632626360953</v>
       </c>
       <c r="G100">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="H100">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2018 - (mai 2021 - apr 2023)</t>
+          <t>2018 - (apr 2021 - mar 2023)</t>
         </is>
       </c>
       <c r="J100" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L100">
         <v>2023</v>
@@ -36750,10 +36858,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.9909031184168359</v>
+        <v>0.9874267754827455</v>
       </c>
       <c r="B101">
-        <v>-0.9096881583164129</v>
+        <v>-1.257322451725451</v>
       </c>
       <c r="C101">
         <v>44</v>
@@ -36762,27 +36870,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E101">
-        <v>5.476972075585569</v>
+        <v>5.507009871652307</v>
       </c>
       <c r="F101">
-        <v>1.004700106936496</v>
+        <v>1.010210264100691</v>
       </c>
       <c r="G101">
-        <v>-2.9</v>
+        <v>-3.3</v>
       </c>
       <c r="H101">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2018 - (jun 2021 - mai 2023)</t>
+          <t>2018 - (mai 2021 - apr 2023)</t>
         </is>
       </c>
       <c r="J101" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L101">
         <v>2023</v>
@@ -36795,10 +36903,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.9925083889365051</v>
+        <v>0.9909031184168359</v>
       </c>
       <c r="B102">
-        <v>-0.7491611063494941</v>
+        <v>-0.9096881583164129</v>
       </c>
       <c r="C102">
         <v>44</v>
@@ -36807,27 +36915,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E102">
-        <v>5.453580629053713</v>
+        <v>5.476972075585569</v>
       </c>
       <c r="F102">
-        <v>1.000409161408999</v>
+        <v>1.004700106936496</v>
       </c>
       <c r="G102">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H102">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2018 - (jul 2021 - jun 2023)</t>
+          <t>2018 - (jun 2021 - mai 2023)</t>
         </is>
       </c>
       <c r="J102" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L102">
         <v>2023</v>
@@ -36840,10 +36948,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.9907567600283037</v>
+        <v>0.9925083889365051</v>
       </c>
       <c r="B103">
-        <v>-0.9243239971696293</v>
+        <v>-0.7491611063494941</v>
       </c>
       <c r="C103">
         <v>44</v>
@@ -36852,27 +36960,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E103">
-        <v>5.394332872804573</v>
+        <v>5.453580629053713</v>
       </c>
       <c r="F103">
-        <v>0.9895407059526342</v>
+        <v>1.000409161408999</v>
       </c>
       <c r="G103">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H103">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2018 - (aug 2021 - jul 2023)</t>
+          <t>2018 - (jul 2021 - jun 2023)</t>
         </is>
       </c>
       <c r="J103" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L103">
         <v>2023</v>
@@ -36885,10 +36993,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9915975363260265</v>
+        <v>0.9907567600283037</v>
       </c>
       <c r="B104">
-        <v>-0.8402463673973459</v>
+        <v>-0.9243239971696293</v>
       </c>
       <c r="C104">
         <v>44</v>
@@ -36897,27 +37005,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E104">
-        <v>5.400899346841728</v>
+        <v>5.394332872804573</v>
       </c>
       <c r="F104">
-        <v>0.9907452651645998</v>
+        <v>0.9895407059526342</v>
       </c>
       <c r="G104">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H104">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2018 - (sep 2021 - aug 2023)</t>
+          <t>2018 - (aug 2021 - jul 2023)</t>
         </is>
       </c>
       <c r="J104" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L104">
         <v>2023</v>
@@ -36930,10 +37038,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.9915880533623102</v>
+        <v>0.9915975363260265</v>
       </c>
       <c r="B105">
-        <v>-0.8411946637689849</v>
+        <v>-0.8402463673973459</v>
       </c>
       <c r="C105">
         <v>44</v>
@@ -36942,27 +37050,27 @@
         <v>29.71721842461514</v>
       </c>
       <c r="E105">
-        <v>5.437995589835681</v>
+        <v>5.400899346841728</v>
       </c>
       <c r="F105">
-        <v>0.9975502294384011</v>
+        <v>0.9907452651645998</v>
       </c>
       <c r="G105">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H105">
         <v>1.2</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2018 - (okt 2021 - sep 2023)</t>
+          <t>2018 - (sep 2021 - aug 2023)</t>
         </is>
       </c>
       <c r="J105" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L105">
         <v>2023</v>
@@ -36975,39 +37083,39 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.9919042345754111</v>
+        <v>0.9915880533623102</v>
       </c>
       <c r="B106">
-        <v>-0.8095765424588897</v>
+        <v>-0.8411946637689849</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D106">
-        <v>27.45990146828373</v>
+        <v>29.71721842461514</v>
       </c>
       <c r="E106">
-        <v>5.422581014444334</v>
+        <v>5.437995589835681</v>
       </c>
       <c r="F106">
-        <v>1.034800337996067</v>
+        <v>0.9975502294384011</v>
       </c>
       <c r="G106">
         <v>-2.9</v>
       </c>
       <c r="H106">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2018 - (nov 2021 - okt 2023)</t>
+          <t>2018 - (okt 2021 - sep 2023)</t>
         </is>
       </c>
       <c r="J106" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L106">
         <v>2023</v>
@@ -37020,10 +37128,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9922862132025905</v>
+        <v>0.9919042345754111</v>
       </c>
       <c r="B107">
-        <v>-0.7713786797409528</v>
+        <v>-0.8095765424588897</v>
       </c>
       <c r="C107">
         <v>41</v>
@@ -37032,10 +37140,10 @@
         <v>27.45990146828373</v>
       </c>
       <c r="E107">
-        <v>5.458744765626958</v>
+        <v>5.422581014444334</v>
       </c>
       <c r="F107">
-        <v>1.041701528010066</v>
+        <v>1.034800337996067</v>
       </c>
       <c r="G107">
         <v>-2.9</v>
@@ -37045,14 +37153,14 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2018 - (des 2021 - nov 2023)</t>
+          <t>2018 - (nov 2021 - okt 2023)</t>
         </is>
       </c>
       <c r="J107" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L107">
         <v>2023</v>
@@ -37065,10 +37173,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.993462733905714</v>
+        <v>0.9922862132025905</v>
       </c>
       <c r="B108">
-        <v>-0.6537266094285954</v>
+        <v>-0.7713786797409528</v>
       </c>
       <c r="C108">
         <v>41</v>
@@ -37077,27 +37185,27 @@
         <v>27.45990146828373</v>
       </c>
       <c r="E108">
-        <v>5.503107421023701</v>
+        <v>5.458744765626958</v>
       </c>
       <c r="F108">
-        <v>1.050167328830132</v>
+        <v>1.041701528010066</v>
       </c>
       <c r="G108">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H108">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2018 - (jan 2022 - des 2023)</t>
+          <t>2018 - (des 2021 - nov 2023)</t>
         </is>
       </c>
       <c r="J108" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L108">
         <v>2023</v>
@@ -37110,10 +37218,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.9954951137246842</v>
+        <v>0.993462733905714</v>
       </c>
       <c r="B109">
-        <v>-0.4504886275315756</v>
+        <v>-0.6537266094285954</v>
       </c>
       <c r="C109">
         <v>41</v>
@@ -37122,30 +37230,30 @@
         <v>27.45990146828373</v>
       </c>
       <c r="E109">
-        <v>5.568050531203109</v>
+        <v>5.503107421023701</v>
       </c>
       <c r="F109">
-        <v>1.062560532764781</v>
+        <v>1.050167328830132</v>
       </c>
       <c r="G109">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="H109">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2018 - (feb 2022 - jan 2024)</t>
+          <t>2018 - (jan 2022 - des 2023)</t>
         </is>
       </c>
       <c r="J109" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L109">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -37155,39 +37263,39 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.9998938080042196</v>
+        <v>0.9954951137246842</v>
       </c>
       <c r="B110">
-        <v>-0.01061919957804358</v>
+        <v>-0.4504886275315756</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D110">
-        <v>26.14792210457956</v>
+        <v>27.45990146828373</v>
       </c>
       <c r="E110">
-        <v>5.80188642455415</v>
+        <v>5.568050531203109</v>
       </c>
       <c r="F110">
-        <v>1.13462051490057</v>
+        <v>1.062560532764781</v>
       </c>
       <c r="G110">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="H110">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2018 - (mar 2022 - feb 2024)</t>
+          <t>2018 - (feb 2022 - jan 2024)</t>
         </is>
       </c>
       <c r="J110" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110">
         <v>2024</v>
@@ -37200,39 +37308,39 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.9986392441481807</v>
+        <v>0.9998938080042196</v>
       </c>
       <c r="B111">
-        <v>-0.1360755851819273</v>
+        <v>-0.01061919957804358</v>
       </c>
       <c r="C111">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D111">
-        <v>27.37543055041307</v>
+        <v>26.14792210457956</v>
       </c>
       <c r="E111">
-        <v>5.690432661402432</v>
+        <v>5.80188642455415</v>
       </c>
       <c r="F111">
-        <v>1.087589007074462</v>
+        <v>1.13462051490057</v>
       </c>
       <c r="G111">
         <v>-2.3</v>
       </c>
       <c r="H111">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2018 - (apr 2022 - mar 2024)</t>
+          <t>2018 - (mar 2022 - feb 2024)</t>
         </is>
       </c>
       <c r="J111" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <v>2024</v>
@@ -37245,39 +37353,39 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.000969164652962</v>
+        <v>0.9986392441481807</v>
       </c>
       <c r="B112">
-        <v>0.09691646529623732</v>
+        <v>-0.1360755851819273</v>
       </c>
       <c r="C112">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D112">
-        <v>27.78474974176642</v>
+        <v>27.37543055041307</v>
       </c>
       <c r="E112">
-        <v>5.904119984305077</v>
+        <v>5.690432661402432</v>
       </c>
       <c r="F112">
-        <v>1.120087446810187</v>
+        <v>1.087589007074462</v>
       </c>
       <c r="G112">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="H112">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2018 - (mai 2022 - apr 2024)</t>
+          <t>2018 - (apr 2022 - mar 2024)</t>
         </is>
       </c>
       <c r="J112" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L112">
         <v>2024</v>
@@ -37290,10 +37398,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.000912417769926</v>
+        <v>1.000969164652962</v>
       </c>
       <c r="B113">
-        <v>0.09124177699260105</v>
+        <v>0.09691646529623732</v>
       </c>
       <c r="C113">
         <v>43</v>
@@ -37302,10 +37410,10 @@
         <v>27.78474974176642</v>
       </c>
       <c r="E113">
-        <v>5.91031164055677</v>
+        <v>5.904119984305077</v>
       </c>
       <c r="F113">
-        <v>1.121262083582631</v>
+        <v>1.120087446810187</v>
       </c>
       <c r="G113">
         <v>-2.2</v>
@@ -37315,14 +37423,14 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2018 - (jun 2022 - mai 2024)</t>
+          <t>2018 - (mai 2022 - apr 2024)</t>
         </is>
       </c>
       <c r="J113" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="K113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L113">
         <v>2024</v>
@@ -37335,39 +37443,39 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.9950634939670064</v>
+        <v>1.000912417769926</v>
       </c>
       <c r="B114">
-        <v>-0.493650603299356</v>
+        <v>0.09124177699260105</v>
       </c>
       <c r="C114">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114">
-        <v>28.75147884749043</v>
+        <v>27.78474974176642</v>
       </c>
       <c r="E114">
-        <v>6.752741219523847</v>
+        <v>5.91031164055677</v>
       </c>
       <c r="F114">
-        <v>1.259360342020278</v>
+        <v>1.121262083582631</v>
       </c>
       <c r="G114">
-        <v>-3</v>
+        <v>-2.2</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2018 - (jul 2022 - jun 2024)</t>
+          <t>2018 - (jun 2022 - mai 2024)</t>
         </is>
       </c>
       <c r="J114" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L114">
         <v>2024</v>
@@ -37380,10 +37488,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.9969359818233375</v>
+        <v>0.9950634939670064</v>
       </c>
       <c r="B115">
-        <v>-0.3064018176662464</v>
+        <v>-0.493650603299356</v>
       </c>
       <c r="C115">
         <v>44</v>
@@ -37392,27 +37500,27 @@
         <v>28.75147884749043</v>
       </c>
       <c r="E115">
-        <v>6.820571827728157</v>
+        <v>6.752741219523847</v>
       </c>
       <c r="F115">
-        <v>1.272010490333476</v>
+        <v>1.259360342020278</v>
       </c>
       <c r="G115">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="H115">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2018 - (aug 2022 - jul 2024)</t>
+          <t>2018 - (jul 2022 - jun 2024)</t>
         </is>
       </c>
       <c r="J115" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L115">
         <v>2024</v>
@@ -37425,39 +37533,39 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9982805385469027</v>
+        <v>0.9969359818233375</v>
       </c>
       <c r="B116">
-        <v>-0.1719461453097315</v>
+        <v>-0.3064018176662464</v>
       </c>
       <c r="C116">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D116">
-        <v>28.0478075753345</v>
+        <v>28.75147884749043</v>
       </c>
       <c r="E116">
-        <v>6.899392726114247</v>
+        <v>6.820571827728157</v>
       </c>
       <c r="F116">
-        <v>1.302750974993284</v>
+        <v>1.272010490333476</v>
       </c>
       <c r="G116">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H116">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2018 - (sep 2022 - aug 2024)</t>
+          <t>2018 - (aug 2022 - jul 2024)</t>
         </is>
       </c>
       <c r="J116" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L116">
         <v>2024</v>
@@ -37470,39 +37578,39 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.9978903434766708</v>
+        <v>0.9982805385469027</v>
       </c>
       <c r="B117">
-        <v>-0.2109656523329173</v>
+        <v>-0.1719461453097315</v>
       </c>
       <c r="C117">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D117">
-        <v>27.59209212718083</v>
+        <v>28.0478075753345</v>
       </c>
       <c r="E117">
-        <v>6.969227573059412</v>
+        <v>6.899392726114247</v>
       </c>
       <c r="F117">
-        <v>1.326759880318288</v>
+        <v>1.302750974993284</v>
       </c>
       <c r="G117">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H117">
         <v>2.5</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2018 - (okt 2022 - sep 2024)</t>
+          <t>2018 - (sep 2022 - aug 2024)</t>
         </is>
       </c>
       <c r="J117" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L117">
         <v>2024</v>
@@ -37515,39 +37623,39 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.9989817691030032</v>
+        <v>0.9978903434766708</v>
       </c>
       <c r="B118">
-        <v>-0.1018230896996819</v>
+        <v>-0.2109656523329173</v>
       </c>
       <c r="C118">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D118">
-        <v>27.22807588462172</v>
+        <v>27.59209212718083</v>
       </c>
       <c r="E118">
-        <v>7.108262373313116</v>
+        <v>6.969227573059412</v>
       </c>
       <c r="F118">
-        <v>1.362244218939442</v>
+        <v>1.326759880318288</v>
       </c>
       <c r="G118">
         <v>-2.9</v>
       </c>
       <c r="H118">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2018 - (nov 2022 - okt 2024)</t>
+          <t>2018 - (okt 2022 - sep 2024)</t>
         </is>
       </c>
       <c r="J118" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L118">
         <v>2024</v>
@@ -37560,10 +37668,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.9988186475690407</v>
+        <v>0.9989648510471411</v>
       </c>
       <c r="B119">
-        <v>-0.1181352430959293</v>
+        <v>-0.1035148952858944</v>
       </c>
       <c r="C119">
         <v>41</v>
@@ -37572,27 +37680,27 @@
         <v>27.22807588462172</v>
       </c>
       <c r="E119">
-        <v>7.151436400884512</v>
+        <v>7.107334155335774</v>
       </c>
       <c r="F119">
-        <v>1.370518191730355</v>
+        <v>1.362066333050157</v>
       </c>
       <c r="G119">
         <v>-2.9</v>
       </c>
       <c r="H119">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2018 - (des 2022 - nov 2024)</t>
+          <t>2018 - (nov 2022 - okt 2024)</t>
         </is>
       </c>
       <c r="J119" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L119">
         <v>2024</v>
@@ -37605,10 +37713,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9994352516887368</v>
+        <v>0.9987850475232125</v>
       </c>
       <c r="B120">
-        <v>-0.05647483112631857</v>
+        <v>-0.121495247678749</v>
       </c>
       <c r="C120">
         <v>41</v>
@@ -37617,27 +37725,27 @@
         <v>27.22807588462172</v>
       </c>
       <c r="E120">
-        <v>7.19569134184928</v>
+        <v>7.149446772484691</v>
       </c>
       <c r="F120">
-        <v>1.37899931332135</v>
+        <v>1.370136894636473</v>
       </c>
       <c r="G120">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H120">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2018 - (jan 2023 - des 2024)</t>
+          <t>2018 - (des 2022 - nov 2024)</t>
         </is>
       </c>
       <c r="J120" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L120">
         <v>2024</v>
@@ -37650,10 +37758,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.9987298081036072</v>
+        <v>0.9993828450598805</v>
       </c>
       <c r="B121">
-        <v>-0.1270191896392769</v>
+        <v>-0.06171549401194909</v>
       </c>
       <c r="C121">
         <v>41</v>
@@ -37662,30 +37770,30 @@
         <v>27.22807588462172</v>
       </c>
       <c r="E121">
-        <v>7.21724312114162</v>
+        <v>7.192592956179642</v>
       </c>
       <c r="F121">
-        <v>1.383129547295137</v>
+        <v>1.378405531361028</v>
       </c>
       <c r="G121">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H121">
         <v>2.7</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2018 - (feb 2023 - jan 2025)</t>
+          <t>2018 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J121" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L121">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -37695,10 +37803,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9985731819585337</v>
+        <v>0.998677401474751</v>
       </c>
       <c r="B122">
-        <v>-0.1426818041466271</v>
+        <v>-0.1322598525248964</v>
       </c>
       <c r="C122">
         <v>41</v>
@@ -37707,27 +37815,27 @@
         <v>27.22807588462172</v>
       </c>
       <c r="E122">
-        <v>7.257448850054931</v>
+        <v>7.213865440424565</v>
       </c>
       <c r="F122">
-        <v>1.3908346683084</v>
+        <v>1.382482240571133</v>
       </c>
       <c r="G122">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="H122">
         <v>2.7</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2018 - (mar 2023 - feb 2025)</t>
+          <t>2018 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J122" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <v>2025</v>
@@ -37740,39 +37848,39 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.000490402887842</v>
+        <v>0.9985207753296775</v>
       </c>
       <c r="B123">
-        <v>0.04904028878416344</v>
+        <v>-0.1479224670322465</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123">
-        <v>26.82453409877067</v>
+        <v>27.22807588462172</v>
       </c>
       <c r="E123">
-        <v>7.220305188519212</v>
+        <v>7.253954024881712</v>
       </c>
       <c r="F123">
-        <v>1.394085663171363</v>
+        <v>1.39016491174366</v>
       </c>
       <c r="G123">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="H123">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2018 - (apr 2023 - mar 2025)</t>
+          <t>2018 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J123" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L123">
         <v>2025</v>
@@ -37785,39 +37893,39 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.003521376885508</v>
+        <v>1.000437552867154</v>
       </c>
       <c r="B124">
-        <v>0.3521376885508465</v>
+        <v>0.04375528671540785</v>
       </c>
       <c r="C124">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D124">
-        <v>25.96029930038975</v>
+        <v>26.82453409877067</v>
       </c>
       <c r="E124">
-        <v>7.379539192494574</v>
+        <v>7.216800332324744</v>
       </c>
       <c r="F124">
-        <v>1.448352909200028</v>
+        <v>1.393408950810235</v>
       </c>
       <c r="G124">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="H124">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2018 - (mai 2023 - apr 2025)</t>
+          <t>2018 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J124" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>2025</v>
@@ -37830,10 +37938,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.005238094851065</v>
+        <v>1.003467246871066</v>
       </c>
       <c r="B125">
-        <v>0.52380948510653</v>
+        <v>0.3467246871065699</v>
       </c>
       <c r="C125">
         <v>39</v>
@@ -37842,27 +37950,27 @@
         <v>25.96029930038975</v>
       </c>
       <c r="E125">
-        <v>7.439837702378362</v>
+        <v>7.376038951523392</v>
       </c>
       <c r="F125">
-        <v>1.460187458747435</v>
+        <v>1.447665930777491</v>
       </c>
       <c r="G125">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="H125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2018 - (jun 2023 - mai 2025)</t>
+          <t>2018 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J125" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L125">
         <v>2025</v>
@@ -37875,10 +37983,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.004247255502609</v>
+        <v>1.005183964836623</v>
       </c>
       <c r="B126">
-        <v>0.4247255502608516</v>
+        <v>0.5183964836622534</v>
       </c>
       <c r="C126">
         <v>39</v>
@@ -37887,27 +37995,27 @@
         <v>25.96029930038975</v>
       </c>
       <c r="E126">
-        <v>7.480468467148378</v>
+        <v>7.436288188054217</v>
       </c>
       <c r="F126">
-        <v>1.468161897912624</v>
+        <v>1.459490809639203</v>
       </c>
       <c r="G126">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="H126">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2018 - (jul 2023 - jun 2025)</t>
+          <t>2018 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J126" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L126">
         <v>2025</v>
@@ -37920,10 +38028,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.006547862392726</v>
+        <v>1.004193125488166</v>
       </c>
       <c r="B127">
-        <v>0.6547862392725534</v>
+        <v>0.419312548816575</v>
       </c>
       <c r="C127">
         <v>39</v>
@@ -37932,27 +38040,27 @@
         <v>25.96029930038975</v>
       </c>
       <c r="E127">
-        <v>7.536342187940321</v>
+        <v>7.477079030525929</v>
       </c>
       <c r="F127">
-        <v>1.479128011642212</v>
+        <v>1.46749666662045</v>
       </c>
       <c r="G127">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="H127">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2018 - (aug 2023 - jul 2025)</t>
+          <t>2018 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J127" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L127">
         <v>2025</v>
@@ -37965,39 +38073,39 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.008702828168085</v>
+        <v>1.006493732378283</v>
       </c>
       <c r="B128">
-        <v>0.8702828168084764</v>
+        <v>0.6493732378282768</v>
       </c>
       <c r="C128">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D128">
-        <v>27.73257800451368</v>
+        <v>25.96029930038975</v>
       </c>
       <c r="E128">
-        <v>7.53623247335001</v>
+        <v>7.533022613493088</v>
       </c>
       <c r="F128">
-        <v>1.431064357683409</v>
+        <v>1.478476491922275</v>
       </c>
       <c r="G128">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="H128">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2018 - (sep 2023 - aug 2025)</t>
+          <t>2018 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J128" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L128">
         <v>2025</v>
@@ -38010,10 +38118,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.010182726984524</v>
+        <v>1.008651306093042</v>
       </c>
       <c r="B129">
-        <v>1.018272698452427</v>
+        <v>0.8651306093041766</v>
       </c>
       <c r="C129">
         <v>41</v>
@@ -38022,27 +38130,27 @@
         <v>27.73257800451368</v>
       </c>
       <c r="E129">
-        <v>7.60644418530729</v>
+        <v>7.533198657641692</v>
       </c>
       <c r="F129">
-        <v>1.444396945130693</v>
+        <v>1.430488262725709</v>
       </c>
       <c r="G129">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="H129">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2018 - (okt 2023 - sep 2025)</t>
+          <t>2018 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J129" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L129">
         <v>2025</v>
@@ -38055,132 +38163,132 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.9464506550524</v>
+        <v>1.010131204909481</v>
       </c>
       <c r="B130">
-        <v>-5.35493449476</v>
+        <v>1.013120490948105</v>
       </c>
       <c r="C130">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D130">
-        <v>32.6479993493452</v>
+        <v>27.73257800451368</v>
       </c>
       <c r="E130">
-        <v>5.631872034192964</v>
+        <v>7.603728546688626</v>
       </c>
       <c r="F130">
-        <v>0.9856540069505604</v>
+        <v>1.443881269207841</v>
       </c>
       <c r="G130">
-        <v>-7.3</v>
+        <v>-1.9</v>
       </c>
       <c r="H130">
-        <v>-3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2018 - (jan 2019 - des 2021)</t>
+          <t>2018 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J130" s="2">
-        <v>44531</v>
+        <v>45901</v>
       </c>
       <c r="K130">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L130">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.9444041809261455</v>
+        <v>1.0115407900887</v>
       </c>
       <c r="B131">
-        <v>-5.559581907385446</v>
+        <v>1.15407900886999</v>
       </c>
       <c r="C131">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D131">
-        <v>32.6479993493452</v>
+        <v>27.73257800451368</v>
       </c>
       <c r="E131">
-        <v>5.789248297667733</v>
+        <v>7.650401364605022</v>
       </c>
       <c r="F131">
-        <v>1.013196987996834</v>
+        <v>1.452744027413482</v>
       </c>
       <c r="G131">
-        <v>-7.6</v>
+        <v>-1.8</v>
       </c>
       <c r="H131">
-        <v>-3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2018 - (feb 2019 - jan 2022)</t>
+          <t>2018 - (nov 2023 - okt 2025)</t>
         </is>
       </c>
       <c r="J131" s="2">
-        <v>44562</v>
+        <v>45931</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L131">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.9422416654907707</v>
+        <v>0.9464506550524</v>
       </c>
       <c r="B132">
-        <v>-5.77583345092293</v>
+        <v>-5.35493449476</v>
       </c>
       <c r="C132">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D132">
-        <v>31.81471064843783</v>
+        <v>32.6479993493452</v>
       </c>
       <c r="E132">
-        <v>5.988384868267137</v>
+        <v>5.631872034192964</v>
       </c>
       <c r="F132">
-        <v>1.061685083005777</v>
+        <v>0.9856540069505604</v>
       </c>
       <c r="G132">
-        <v>-7.9</v>
+        <v>-7.3</v>
       </c>
       <c r="H132">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2018 - (mar 2019 - feb 2022)</t>
+          <t>2018 - (jan 2019 - des 2021)</t>
         </is>
       </c>
       <c r="J132" s="2">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L132">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -38190,39 +38298,39 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.9440058088884753</v>
+        <v>0.9444041809261455</v>
       </c>
       <c r="B133">
-        <v>-5.59941911115247</v>
+        <v>-5.559581907385446</v>
       </c>
       <c r="C133">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D133">
-        <v>31.39521548745484</v>
+        <v>32.6479993493452</v>
       </c>
       <c r="E133">
-        <v>5.758681818762549</v>
+        <v>5.789248297667733</v>
       </c>
       <c r="F133">
-        <v>1.027759143588816</v>
+        <v>1.013196987996834</v>
       </c>
       <c r="G133">
-        <v>-7.7</v>
+        <v>-7.6</v>
       </c>
       <c r="H133">
         <v>-3.5</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2018 - (apr 2019 - mar 2022)</t>
+          <t>2018 - (feb 2019 - jan 2022)</t>
         </is>
       </c>
       <c r="J133" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L133">
         <v>2022</v>
@@ -38235,39 +38343,39 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.9443549520292805</v>
+        <v>0.9422416654907707</v>
       </c>
       <c r="B134">
-        <v>-5.564504797071946</v>
+        <v>-5.77583345092293</v>
       </c>
       <c r="C134">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D134">
-        <v>31.39521548745484</v>
+        <v>31.81471064843783</v>
       </c>
       <c r="E134">
-        <v>5.808159619451249</v>
+        <v>5.988384868267137</v>
       </c>
       <c r="F134">
-        <v>1.036589508533932</v>
+        <v>1.061685083005777</v>
       </c>
       <c r="G134">
-        <v>-7.7</v>
+        <v>-7.9</v>
       </c>
       <c r="H134">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2018 - (mai 2019 - apr 2022)</t>
+          <t>2018 - (mar 2019 - feb 2022)</t>
         </is>
       </c>
       <c r="J134" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L134">
         <v>2022</v>
@@ -38280,10 +38388,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.945003394434091</v>
+        <v>0.9440058088884753</v>
       </c>
       <c r="B135">
-        <v>-5.499660556590902</v>
+        <v>-5.59941911115247</v>
       </c>
       <c r="C135">
         <v>46</v>
@@ -38292,27 +38400,27 @@
         <v>31.39521548745484</v>
       </c>
       <c r="E135">
-        <v>5.862748937570961</v>
+        <v>5.758681818762549</v>
       </c>
       <c r="F135">
-        <v>1.046332132385282</v>
+        <v>1.027759143588816</v>
       </c>
       <c r="G135">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="H135">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2018 - (jun 2019 - mai 2022)</t>
+          <t>2018 - (apr 2019 - mar 2022)</t>
         </is>
       </c>
       <c r="J135" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="K135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L135">
         <v>2022</v>
@@ -38325,10 +38433,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.9459174112449767</v>
+        <v>0.9443549520292805</v>
       </c>
       <c r="B136">
-        <v>-5.408258875502325</v>
+        <v>-5.564504797071946</v>
       </c>
       <c r="C136">
         <v>46</v>
@@ -38337,27 +38445,27 @@
         <v>31.39521548745484</v>
       </c>
       <c r="E136">
-        <v>5.926760385650585</v>
+        <v>5.808159619451249</v>
       </c>
       <c r="F136">
-        <v>1.057756335549945</v>
+        <v>1.036589508533932</v>
       </c>
       <c r="G136">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="H136">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2018 - (jul 2019 - jun 2022)</t>
+          <t>2018 - (mai 2019 - apr 2022)</t>
         </is>
       </c>
       <c r="J136" s="2">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="K136">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L136">
         <v>2022</v>
@@ -38370,10 +38478,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.9456139111239309</v>
+        <v>0.945003394434091</v>
       </c>
       <c r="B137">
-        <v>-5.438608887606911</v>
+        <v>-5.499660556590902</v>
       </c>
       <c r="C137">
         <v>46</v>
@@ -38382,27 +38490,27 @@
         <v>31.39521548745484</v>
       </c>
       <c r="E137">
-        <v>5.971448236349381</v>
+        <v>5.862748937570961</v>
       </c>
       <c r="F137">
-        <v>1.065731832132058</v>
+        <v>1.046332132385282</v>
       </c>
       <c r="G137">
         <v>-7.6</v>
       </c>
       <c r="H137">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2018 - (aug 2019 - jul 2022)</t>
+          <t>2018 - (jun 2019 - mai 2022)</t>
         </is>
       </c>
       <c r="J137" s="2">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L137">
         <v>2022</v>
@@ -38415,39 +38523,39 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.9459882020353513</v>
+        <v>0.9459174112449767</v>
       </c>
       <c r="B138">
-        <v>-5.401179796464872</v>
+        <v>-5.408258875502325</v>
       </c>
       <c r="C138">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D138">
-        <v>31.21739506991733</v>
+        <v>31.39521548745484</v>
       </c>
       <c r="E138">
-        <v>6.053444273466105</v>
+        <v>5.926760385650585</v>
       </c>
       <c r="F138">
-        <v>1.083438385908524</v>
+        <v>1.057756335549945</v>
       </c>
       <c r="G138">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="H138">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2018 - (sep 2019 - aug 2022)</t>
+          <t>2018 - (jul 2019 - jun 2022)</t>
         </is>
       </c>
       <c r="J138" s="2">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="K138">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L138">
         <v>2022</v>
@@ -38460,39 +38568,39 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.9468436385034703</v>
+        <v>0.9456139111239309</v>
       </c>
       <c r="B139">
-        <v>-5.315636149652969</v>
+        <v>-5.438608887606911</v>
       </c>
       <c r="C139">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D139">
-        <v>31.21739506991733</v>
+        <v>31.39521548745484</v>
       </c>
       <c r="E139">
-        <v>6.12571579824878</v>
+        <v>5.971448236349381</v>
       </c>
       <c r="F139">
-        <v>1.096373459004168</v>
+        <v>1.065731832132058</v>
       </c>
       <c r="G139">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="H139">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2018 - (okt 2019 - sep 2022)</t>
+          <t>2018 - (aug 2019 - jul 2022)</t>
         </is>
       </c>
       <c r="J139" s="2">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="K139">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L139">
         <v>2022</v>
@@ -38505,10 +38613,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.9465412686137734</v>
+        <v>0.9459882020353513</v>
       </c>
       <c r="B140">
-        <v>-5.345873138622659</v>
+        <v>-5.401179796464872</v>
       </c>
       <c r="C140">
         <v>45</v>
@@ -38517,27 +38625,27 @@
         <v>31.21739506991733</v>
       </c>
       <c r="E140">
-        <v>6.18395922891221</v>
+        <v>6.053444273466105</v>
       </c>
       <c r="F140">
-        <v>1.106797800198545</v>
+        <v>1.083438385908524</v>
       </c>
       <c r="G140">
         <v>-7.6</v>
       </c>
       <c r="H140">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2018 - (nov 2019 - okt 2022)</t>
+          <t>2018 - (sep 2019 - aug 2022)</t>
         </is>
       </c>
       <c r="J140" s="2">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="K140">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L140">
         <v>2022</v>
@@ -38550,39 +38658,39 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.947929199817253</v>
+        <v>0.9468436385034703</v>
       </c>
       <c r="B141">
-        <v>-5.207080018274701</v>
+        <v>-5.315636149652969</v>
       </c>
       <c r="C141">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D141">
-        <v>30.72827780181761</v>
+        <v>31.21739506991733</v>
       </c>
       <c r="E141">
-        <v>6.279578056377065</v>
+        <v>6.12571579824878</v>
       </c>
       <c r="F141">
-        <v>1.132821160847716</v>
+        <v>1.096373459004168</v>
       </c>
       <c r="G141">
         <v>-7.5</v>
       </c>
       <c r="H141">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2018 - (des 2019 - nov 2022)</t>
+          <t>2018 - (okt 2019 - sep 2022)</t>
         </is>
       </c>
       <c r="J141" s="2">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="K141">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L141">
         <v>2022</v>
@@ -38595,39 +38703,39 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.9535904766896421</v>
+        <v>0.9465412686137734</v>
       </c>
       <c r="B142">
-        <v>-4.640952331035786</v>
+        <v>-5.345873138622659</v>
       </c>
       <c r="C142">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D142">
-        <v>29.78468112559479</v>
+        <v>31.21739506991733</v>
       </c>
       <c r="E142">
-        <v>5.884094395197461</v>
+        <v>6.18395922891221</v>
       </c>
       <c r="F142">
-        <v>1.078159847168474</v>
+        <v>1.106797800198545</v>
       </c>
       <c r="G142">
-        <v>-6.8</v>
+        <v>-7.6</v>
       </c>
       <c r="H142">
-        <v>-2.5</v>
+        <v>-3.1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2018 - (jan 2020 - des 2022)</t>
+          <t>2018 - (nov 2019 - okt 2022)</t>
         </is>
       </c>
       <c r="J142" s="2">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K142">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L142">
         <v>2022</v>
@@ -38640,42 +38748,42 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.9538593578379527</v>
+        <v>0.947929199817253</v>
       </c>
       <c r="B143">
-        <v>-4.614064216204728</v>
+        <v>-5.207080018274701</v>
       </c>
       <c r="C143">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D143">
-        <v>29.78468112559479</v>
+        <v>30.72827780181761</v>
       </c>
       <c r="E143">
-        <v>5.935439085926545</v>
+        <v>6.279578056377065</v>
       </c>
       <c r="F143">
-        <v>1.087567885209904</v>
+        <v>1.132821160847716</v>
       </c>
       <c r="G143">
-        <v>-6.8</v>
+        <v>-7.5</v>
       </c>
       <c r="H143">
-        <v>-2.4</v>
+        <v>-2.9</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2018 - (feb 2020 - jan 2023)</t>
+          <t>2018 - (des 2019 - nov 2022)</t>
         </is>
       </c>
       <c r="J143" s="2">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L143">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -38685,10 +38793,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.9547387465250645</v>
+        <v>0.9535904766896421</v>
       </c>
       <c r="B144">
-        <v>-4.526125347493548</v>
+        <v>-4.640952331035786</v>
       </c>
       <c r="C144">
         <v>43</v>
@@ -38697,30 +38805,30 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E144">
-        <v>5.992948803065532</v>
+        <v>5.884094395197461</v>
       </c>
       <c r="F144">
-        <v>1.098105559094246</v>
+        <v>1.078159847168474</v>
       </c>
       <c r="G144">
-        <v>-6.7</v>
+        <v>-6.8</v>
       </c>
       <c r="H144">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2018 - (mar 2020 - feb 2023)</t>
+          <t>2018 - (jan 2020 - des 2022)</t>
         </is>
       </c>
       <c r="J144" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L144">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -38730,10 +38838,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.9619309190474121</v>
+        <v>0.9538593578379527</v>
       </c>
       <c r="B145">
-        <v>-3.806908095258787</v>
+        <v>-4.614064216204728</v>
       </c>
       <c r="C145">
         <v>43</v>
@@ -38742,27 +38850,27 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E145">
-        <v>6.015069885726689</v>
+        <v>5.935439085926545</v>
       </c>
       <c r="F145">
-        <v>1.102158869850208</v>
+        <v>1.087567885209904</v>
       </c>
       <c r="G145">
-        <v>-6</v>
+        <v>-6.8</v>
       </c>
       <c r="H145">
-        <v>-1.6</v>
+        <v>-2.4</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2018 - (apr 2020 - mar 2023)</t>
+          <t>2018 - (feb 2020 - jan 2023)</t>
         </is>
       </c>
       <c r="J145" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L145">
         <v>2023</v>
@@ -38775,10 +38883,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.9680669540937453</v>
+        <v>0.9547387465250645</v>
       </c>
       <c r="B146">
-        <v>-3.193304590625468</v>
+        <v>-4.526125347493548</v>
       </c>
       <c r="C146">
         <v>43</v>
@@ -38787,27 +38895,27 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E146">
-        <v>5.933670645841994</v>
+        <v>5.992948803065532</v>
       </c>
       <c r="F146">
-        <v>1.087243848754466</v>
+        <v>1.098105559094246</v>
       </c>
       <c r="G146">
-        <v>-5.4</v>
+        <v>-6.7</v>
       </c>
       <c r="H146">
-        <v>-1</v>
+        <v>-2.3</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2018 - (mai 2020 - apr 2023)</t>
+          <t>2018 - (mar 2020 - feb 2023)</t>
         </is>
       </c>
       <c r="J146" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L146">
         <v>2023</v>
@@ -38820,10 +38928,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.9722402115092181</v>
+        <v>0.9619309190474121</v>
       </c>
       <c r="B147">
-        <v>-2.775978849078187</v>
+        <v>-3.806908095258787</v>
       </c>
       <c r="C147">
         <v>43</v>
@@ -38832,27 +38940,27 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E147">
-        <v>5.826717502364923</v>
+        <v>6.015069885726689</v>
       </c>
       <c r="F147">
-        <v>1.06764651107077</v>
+        <v>1.102158869850208</v>
       </c>
       <c r="G147">
-        <v>-4.9</v>
+        <v>-6</v>
       </c>
       <c r="H147">
-        <v>-0.6</v>
+        <v>-1.6</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2018 - (jun 2020 - mai 2023)</t>
+          <t>2018 - (apr 2020 - mar 2023)</t>
         </is>
       </c>
       <c r="J147" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -38865,10 +38973,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.9746311482733198</v>
+        <v>0.9680669540937453</v>
       </c>
       <c r="B148">
-        <v>-2.536885172668024</v>
+        <v>-3.193304590625468</v>
       </c>
       <c r="C148">
         <v>43</v>
@@ -38877,27 +38985,27 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E148">
-        <v>5.7038313546418</v>
+        <v>5.933670645841994</v>
       </c>
       <c r="F148">
-        <v>1.045129722360442</v>
+        <v>1.087243848754466</v>
       </c>
       <c r="G148">
-        <v>-4.6</v>
+        <v>-5.4</v>
       </c>
       <c r="H148">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2018 - (jul 2020 - jun 2023)</t>
+          <t>2018 - (mai 2020 - apr 2023)</t>
         </is>
       </c>
       <c r="J148" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -38910,10 +39018,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.9738192287451369</v>
+        <v>0.9722402115092181</v>
       </c>
       <c r="B149">
-        <v>-2.618077125486307</v>
+        <v>-2.775978849078187</v>
       </c>
       <c r="C149">
         <v>43</v>
@@ -38922,27 +39030,27 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E149">
-        <v>5.57825252590541</v>
+        <v>5.826717502364923</v>
       </c>
       <c r="F149">
-        <v>1.022119545822735</v>
+        <v>1.06764651107077</v>
       </c>
       <c r="G149">
-        <v>-4.7</v>
+        <v>-4.9</v>
       </c>
       <c r="H149">
         <v>-0.6</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2018 - (aug 2020 - jul 2023)</t>
+          <t>2018 - (jun 2020 - mai 2023)</t>
         </is>
       </c>
       <c r="J149" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -38955,10 +39063,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.9754543416963734</v>
+        <v>0.9746311482733198</v>
       </c>
       <c r="B150">
-        <v>-2.454565830362665</v>
+        <v>-2.536885172668024</v>
       </c>
       <c r="C150">
         <v>43</v>
@@ -38967,27 +39075,27 @@
         <v>29.78468112559479</v>
       </c>
       <c r="E150">
-        <v>5.490424545024106</v>
+        <v>5.7038313546418</v>
       </c>
       <c r="F150">
-        <v>1.00602656768809</v>
+        <v>1.045129722360442</v>
       </c>
       <c r="G150">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="H150">
         <v>-0.4</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2018 - (sep 2020 - aug 2023)</t>
+          <t>2018 - (jul 2020 - jun 2023)</t>
         </is>
       </c>
       <c r="J150" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K150">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -39000,39 +39108,39 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.9731411322528518</v>
+        <v>0.9738192287451369</v>
       </c>
       <c r="B151">
-        <v>-2.685886774714819</v>
+        <v>-2.618077125486307</v>
       </c>
       <c r="C151">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D151">
-        <v>29.71721842461514</v>
+        <v>29.78468112559479</v>
       </c>
       <c r="E151">
-        <v>5.502835871453731</v>
+        <v>5.57825252590541</v>
       </c>
       <c r="F151">
-        <v>1.009444582189594</v>
+        <v>1.022119545822735</v>
       </c>
       <c r="G151">
         <v>-4.7</v>
       </c>
       <c r="H151">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2018 - (okt 2020 - sep 2023)</t>
+          <t>2018 - (aug 2020 - jul 2023)</t>
         </is>
       </c>
       <c r="J151" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K151">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -39045,39 +39153,39 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.9745527457781984</v>
+        <v>0.9754543416963734</v>
       </c>
       <c r="B152">
-        <v>-2.544725422180161</v>
+        <v>-2.454565830362665</v>
       </c>
       <c r="C152">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D152">
-        <v>29.71721842461514</v>
+        <v>29.78468112559479</v>
       </c>
       <c r="E152">
-        <v>5.449828299718568</v>
+        <v>5.490424545024106</v>
       </c>
       <c r="F152">
-        <v>0.9997208311359485</v>
+        <v>1.00602656768809</v>
       </c>
       <c r="G152">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="H152">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2018 - (nov 2020 - okt 2023)</t>
+          <t>2018 - (sep 2020 - aug 2023)</t>
         </is>
       </c>
       <c r="J152" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K152">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -39090,39 +39198,39 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.9772223237396483</v>
+        <v>0.9731411322528518</v>
       </c>
       <c r="B153">
-        <v>-2.277767626035165</v>
+        <v>-2.685886774714819</v>
       </c>
       <c r="C153">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D153">
-        <v>28.32221502687932</v>
+        <v>29.71721842461514</v>
       </c>
       <c r="E153">
-        <v>5.37170480425578</v>
+        <v>5.502835871453731</v>
       </c>
       <c r="F153">
-        <v>1.009365672325069</v>
+        <v>1.009444582189594</v>
       </c>
       <c r="G153">
-        <v>-4.3</v>
+        <v>-4.7</v>
       </c>
       <c r="H153">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2018 - (des 2020 - nov 2023)</t>
+          <t>2018 - (okt 2020 - sep 2023)</t>
         </is>
       </c>
       <c r="J153" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K153">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -39135,39 +39243,39 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.9786942863878965</v>
+        <v>0.9745527457781984</v>
       </c>
       <c r="B154">
-        <v>-2.130571361210354</v>
+        <v>-2.544725422180161</v>
       </c>
       <c r="C154">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D154">
-        <v>28.32221502687932</v>
+        <v>29.71721842461514</v>
       </c>
       <c r="E154">
-        <v>5.345173009198745</v>
+        <v>5.449828299718568</v>
       </c>
       <c r="F154">
-        <v>1.004380237694611</v>
+        <v>0.9997208311359485</v>
       </c>
       <c r="G154">
-        <v>-4.2</v>
+        <v>-4.6</v>
       </c>
       <c r="H154">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2018 - (jan 2021 - des 2023)</t>
+          <t>2018 - (nov 2020 - okt 2023)</t>
         </is>
       </c>
       <c r="J154" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K154">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -39180,10 +39288,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.9810723401009267</v>
+        <v>0.9772223237396483</v>
       </c>
       <c r="B155">
-        <v>-1.89276598990733</v>
+        <v>-2.277767626035165</v>
       </c>
       <c r="C155">
         <v>42</v>
@@ -39192,30 +39300,30 @@
         <v>28.32221502687932</v>
       </c>
       <c r="E155">
-        <v>5.362362488443434</v>
+        <v>5.37170480425578</v>
       </c>
       <c r="F155">
-        <v>1.007610212331525</v>
+        <v>1.009365672325069</v>
       </c>
       <c r="G155">
-        <v>-3.9</v>
+        <v>-4.3</v>
       </c>
       <c r="H155">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2018 - (feb 2021 - jan 2024)</t>
+          <t>2018 - (des 2020 - nov 2023)</t>
         </is>
       </c>
       <c r="J155" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L155">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -39225,10 +39333,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.9843429385471146</v>
+        <v>0.9786942863878965</v>
       </c>
       <c r="B156">
-        <v>-1.565706145288537</v>
+        <v>-2.130571361210354</v>
       </c>
       <c r="C156">
         <v>42</v>
@@ -39237,30 +39345,30 @@
         <v>28.32221502687932</v>
       </c>
       <c r="E156">
-        <v>5.388511459673792</v>
+        <v>5.345173009198745</v>
       </c>
       <c r="F156">
-        <v>1.01252371277288</v>
+        <v>1.004380237694611</v>
       </c>
       <c r="G156">
-        <v>-3.6</v>
+        <v>-4.2</v>
       </c>
       <c r="H156">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2018 - (mar 2021 - feb 2024)</t>
+          <t>2018 - (jan 2021 - des 2023)</t>
         </is>
       </c>
       <c r="J156" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L156">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -39270,39 +39378,39 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.9871181368207291</v>
+        <v>0.9810723401009267</v>
       </c>
       <c r="B157">
-        <v>-1.288186317927087</v>
+        <v>-1.89276598990733</v>
       </c>
       <c r="C157">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D157">
-        <v>27.03387259292841</v>
+        <v>28.32221502687932</v>
       </c>
       <c r="E157">
-        <v>5.502003207455082</v>
+        <v>5.362362488443434</v>
       </c>
       <c r="F157">
-        <v>1.058197443258117</v>
+        <v>1.007610212331525</v>
       </c>
       <c r="G157">
-        <v>-3.4</v>
+        <v>-3.9</v>
       </c>
       <c r="H157">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2018 - (apr 2021 - mar 2024)</t>
+          <t>2018 - (feb 2021 - jan 2024)</t>
         </is>
       </c>
       <c r="J157" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L157">
         <v>2024</v>
@@ -39315,39 +39423,39 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.9904257790346159</v>
+        <v>0.9843429385471146</v>
       </c>
       <c r="B158">
-        <v>-0.9574220965384073</v>
+        <v>-1.565706145288537</v>
       </c>
       <c r="C158">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D158">
-        <v>26.37135680018496</v>
+        <v>28.32221502687932</v>
       </c>
       <c r="E158">
-        <v>5.506982901913267</v>
+        <v>5.388511459673792</v>
       </c>
       <c r="F158">
-        <v>1.072376999814736</v>
+        <v>1.01252371277288</v>
       </c>
       <c r="G158">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="H158">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2018 - (mai 2021 - apr 2024)</t>
+          <t>2018 - (mar 2021 - feb 2024)</t>
         </is>
       </c>
       <c r="J158" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <v>2024</v>
@@ -39360,39 +39468,39 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.9944428414117349</v>
+        <v>0.9871181368207291</v>
       </c>
       <c r="B159">
-        <v>-0.555715858826511</v>
+        <v>-1.288186317927087</v>
       </c>
       <c r="C159">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D159">
-        <v>25.48956708906191</v>
+        <v>27.03387259292841</v>
       </c>
       <c r="E159">
-        <v>5.525291402111257</v>
+        <v>5.502003207455082</v>
       </c>
       <c r="F159">
-        <v>1.094394641008152</v>
+        <v>1.058197443258117</v>
       </c>
       <c r="G159">
-        <v>-2.8</v>
+        <v>-3.4</v>
       </c>
       <c r="H159">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2018 - (jun 2021 - mai 2024)</t>
+          <t>2018 - (apr 2021 - mar 2024)</t>
         </is>
       </c>
       <c r="J159" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L159">
         <v>2024</v>
@@ -39405,39 +39513,39 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.9946471515361929</v>
+        <v>0.9904257790346159</v>
       </c>
       <c r="B160">
-        <v>-0.5352848463807125</v>
+        <v>-0.9574220965384073</v>
       </c>
       <c r="C160">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D160">
-        <v>25.48956708906191</v>
+        <v>26.37135680018496</v>
       </c>
       <c r="E160">
-        <v>5.543456520993878</v>
+        <v>5.506982901913267</v>
       </c>
       <c r="F160">
-        <v>1.097992606673967</v>
+        <v>1.072376999814736</v>
       </c>
       <c r="G160">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="H160">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2018 - (jul 2021 - jun 2024)</t>
+          <t>2018 - (mai 2021 - apr 2024)</t>
         </is>
       </c>
       <c r="J160" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>2024</v>
@@ -39450,39 +39558,39 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.9950091187422109</v>
+        <v>0.9944428414117349</v>
       </c>
       <c r="B161">
-        <v>-0.4990881257789126</v>
+        <v>-0.555715858826511</v>
       </c>
       <c r="C161">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D161">
-        <v>24.80414557580576</v>
+        <v>25.48956708906191</v>
       </c>
       <c r="E161">
-        <v>5.550229518730148</v>
+        <v>5.525291402111257</v>
       </c>
       <c r="F161">
-        <v>1.114419767834885</v>
+        <v>1.094394641008152</v>
       </c>
       <c r="G161">
         <v>-2.8</v>
       </c>
       <c r="H161">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2018 - (aug 2021 - jul 2024)</t>
+          <t>2018 - (jun 2021 - mai 2024)</t>
         </is>
       </c>
       <c r="J161" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L161">
         <v>2024</v>
@@ -39495,39 +39603,39 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.9956281784894548</v>
+        <v>0.9946471515361929</v>
       </c>
       <c r="B162">
-        <v>-0.437182151054516</v>
+        <v>-0.5352848463807125</v>
       </c>
       <c r="C162">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D162">
-        <v>24.80414557580576</v>
+        <v>25.48956708906191</v>
       </c>
       <c r="E162">
-        <v>5.570159028357383</v>
+        <v>5.543456520993878</v>
       </c>
       <c r="F162">
-        <v>1.11842137523092</v>
+        <v>1.097992606673967</v>
       </c>
       <c r="G162">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="H162">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2018 - (sep 2021 - aug 2024)</t>
+          <t>2018 - (jul 2021 - jun 2024)</t>
         </is>
       </c>
       <c r="J162" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K162">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L162">
         <v>2024</v>
@@ -39540,10 +39648,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.99592661158507</v>
+        <v>0.9950091187422109</v>
       </c>
       <c r="B163">
-        <v>-0.407338841492999</v>
+        <v>-0.4990881257789126</v>
       </c>
       <c r="C163">
         <v>37</v>
@@ -39552,27 +39660,27 @@
         <v>24.80414557580576</v>
       </c>
       <c r="E163">
-        <v>5.609664079630551</v>
+        <v>5.550229518730148</v>
       </c>
       <c r="F163">
-        <v>1.126353517481899</v>
+        <v>1.114419767834885</v>
       </c>
       <c r="G163">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="H163">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2018 - (okt 2021 - sep 2024)</t>
+          <t>2018 - (aug 2021 - jul 2024)</t>
         </is>
       </c>
       <c r="J163" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K163">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L163">
         <v>2024</v>
@@ -39585,10 +39693,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.9968690230155042</v>
+        <v>0.9956281784894548</v>
       </c>
       <c r="B164">
-        <v>-0.3130976984495826</v>
+        <v>-0.437182151054516</v>
       </c>
       <c r="C164">
         <v>37</v>
@@ -39597,27 +39705,27 @@
         <v>24.80414557580576</v>
       </c>
       <c r="E164">
-        <v>5.700718303804416</v>
+        <v>5.570159028357383</v>
       </c>
       <c r="F164">
-        <v>1.144636117691816</v>
+        <v>1.11842137523092</v>
       </c>
       <c r="G164">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2018 - (nov 2021 - okt 2024)</t>
+          <t>2018 - (sep 2021 - aug 2024)</t>
         </is>
       </c>
       <c r="J164" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K164">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L164">
         <v>2024</v>
@@ -39630,10 +39738,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.9973326716844331</v>
+        <v>0.99592661158507</v>
       </c>
       <c r="B165">
-        <v>-0.266732831556693</v>
+        <v>-0.407338841492999</v>
       </c>
       <c r="C165">
         <v>37</v>
@@ -39642,27 +39750,27 @@
         <v>24.80414557580576</v>
       </c>
       <c r="E165">
-        <v>5.76794533136582</v>
+        <v>5.609664079630551</v>
       </c>
       <c r="F165">
-        <v>1.158134501532409</v>
+        <v>1.126353517481899</v>
       </c>
       <c r="G165">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="H165">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2018 - (des 2021 - nov 2024)</t>
+          <t>2018 - (okt 2021 - sep 2024)</t>
         </is>
       </c>
       <c r="J165" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="K165">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L165">
         <v>2024</v>
@@ -39675,10 +39783,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.9987721063971436</v>
+        <v>0.9968690230155042</v>
       </c>
       <c r="B166">
-        <v>-0.1227893602856356</v>
+        <v>-0.3130976984495826</v>
       </c>
       <c r="C166">
         <v>37</v>
@@ -39687,27 +39795,27 @@
         <v>24.80414557580576</v>
       </c>
       <c r="E166">
-        <v>5.841296926367597</v>
+        <v>5.700718303804416</v>
       </c>
       <c r="F166">
-        <v>1.172862625332756</v>
+        <v>1.144636117691816</v>
       </c>
       <c r="G166">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="H166">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2018 - (jan 2022 - des 2024)</t>
+          <t>2018 - (nov 2021 - okt 2024)</t>
         </is>
       </c>
       <c r="J166" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K166">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L166">
         <v>2024</v>
@@ -39720,10 +39828,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.000793461767161</v>
+        <v>0.9973326716844331</v>
       </c>
       <c r="B167">
-        <v>0.07934617671609967</v>
+        <v>-0.266732831556693</v>
       </c>
       <c r="C167">
         <v>37</v>
@@ -39732,30 +39840,30 @@
         <v>24.80414557580576</v>
       </c>
       <c r="E167">
-        <v>5.901296983411887</v>
+        <v>5.76794533136582</v>
       </c>
       <c r="F167">
-        <v>1.184909919848367</v>
+        <v>1.158134501532409</v>
       </c>
       <c r="G167">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="H167">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2018 - (feb 2022 - jan 2025)</t>
+          <t>2018 - (des 2021 - nov 2024)</t>
         </is>
       </c>
       <c r="J167" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L167">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -39765,42 +39873,42 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.003817345971241</v>
+        <v>0.9987721063971436</v>
       </c>
       <c r="B168">
-        <v>0.3817345971240726</v>
+        <v>-0.1227893602856356</v>
       </c>
       <c r="C168">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D168">
-        <v>25.86672737708841</v>
+        <v>24.80414557580576</v>
       </c>
       <c r="E168">
-        <v>5.915005936411349</v>
+        <v>5.841296926367597</v>
       </c>
       <c r="F168">
-        <v>1.163012659007338</v>
+        <v>1.172862625332756</v>
       </c>
       <c r="G168">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="H168">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2018 - (mar 2022 - feb 2025)</t>
+          <t>2018 - (jan 2022 - des 2024)</t>
         </is>
       </c>
       <c r="J168" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L168">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -39810,39 +39918,39 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>1.004364749088098</v>
+        <v>1.000793461767161</v>
       </c>
       <c r="B169">
-        <v>0.4364749088098474</v>
+        <v>0.07934617671609967</v>
       </c>
       <c r="C169">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D169">
-        <v>25.86672737708841</v>
+        <v>24.80414557580576</v>
       </c>
       <c r="E169">
-        <v>5.978678870323116</v>
+        <v>5.901296983411887</v>
       </c>
       <c r="F169">
-        <v>1.175532076396199</v>
+        <v>1.184909919848367</v>
       </c>
       <c r="G169">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="H169">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2018 - (apr 2022 - mar 2025)</t>
+          <t>2018 - (feb 2022 - jan 2025)</t>
         </is>
       </c>
       <c r="J169" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>2025</v>
@@ -39855,39 +39963,39 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.005772633086311</v>
+        <v>1.003663697568219</v>
       </c>
       <c r="B170">
-        <v>0.5772633086310597</v>
+        <v>0.3663697568218938</v>
       </c>
       <c r="C170">
         <v>38</v>
       </c>
       <c r="D170">
-        <v>25.00546865547441</v>
+        <v>25.69602848127526</v>
       </c>
       <c r="E170">
-        <v>6.126568615408325</v>
+        <v>5.920060949114809</v>
       </c>
       <c r="F170">
-        <v>1.225179728692347</v>
+        <v>1.167866431439977</v>
       </c>
       <c r="G170">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="H170">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2018 - (mai 2022 - apr 2025)</t>
+          <t>2018 - (mar 2022 - feb 2025)</t>
         </is>
       </c>
       <c r="J170" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L170">
         <v>2025</v>
@@ -39900,39 +40008,39 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.000574894347586</v>
+        <v>1.004209307824681</v>
       </c>
       <c r="B171">
-        <v>0.05748943475856194</v>
+        <v>0.4209307824680986</v>
       </c>
       <c r="C171">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D171">
-        <v>25.96029930038975</v>
+        <v>25.69602848127526</v>
       </c>
       <c r="E171">
-        <v>7.000884231643075</v>
+        <v>5.983777451285648</v>
       </c>
       <c r="F171">
-        <v>1.374035800797098</v>
+        <v>1.180435958114398</v>
       </c>
       <c r="G171">
-        <v>-2.7</v>
+        <v>-2</v>
       </c>
       <c r="H171">
         <v>2.8</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2018 - (jun 2022 - mai 2025)</t>
+          <t>2018 - (apr 2022 - mar 2025)</t>
         </is>
       </c>
       <c r="J171" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L171">
         <v>2025</v>
@@ -39945,39 +40053,39 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.001009289068094</v>
+        <v>1.005620520202864</v>
       </c>
       <c r="B172">
-        <v>0.1009289068094166</v>
+        <v>0.5620520202864077</v>
       </c>
       <c r="C172">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D172">
-        <v>25.96029930038975</v>
+        <v>24.83626558803658</v>
       </c>
       <c r="E172">
-        <v>7.061426940341875</v>
+        <v>6.132789230491259</v>
       </c>
       <c r="F172">
-        <v>1.385918278278069</v>
+        <v>1.23059427859553</v>
       </c>
       <c r="G172">
-        <v>-2.7</v>
+        <v>-1.9</v>
       </c>
       <c r="H172">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2018 - (jul 2022 - jun 2025)</t>
+          <t>2018 - (mai 2022 - apr 2025)</t>
         </is>
       </c>
       <c r="J172" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K172">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L172">
         <v>2025</v>
@@ -39990,10 +40098,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.003191313839484</v>
+        <v>1.000540108092058</v>
       </c>
       <c r="B173">
-        <v>0.3191313839484122</v>
+        <v>0.05401080920577339</v>
       </c>
       <c r="C173">
         <v>39</v>
@@ -40002,27 +40110,27 @@
         <v>25.96029930038975</v>
       </c>
       <c r="E173">
-        <v>7.134574889683154</v>
+        <v>6.998615311680825</v>
       </c>
       <c r="F173">
-        <v>1.400274736380251</v>
+        <v>1.373590488868759</v>
       </c>
       <c r="G173">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="H173">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2018 - (aug 2022 - jul 2025)</t>
+          <t>2018 - (jun 2022 - mai 2025)</t>
         </is>
       </c>
       <c r="J173" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K173">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L173">
         <v>2025</v>
@@ -40035,10 +40143,10 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.004338772614114</v>
+        <v>1.000974502812566</v>
       </c>
       <c r="B174">
-        <v>0.4338772614113973</v>
+        <v>0.09745028125662802</v>
       </c>
       <c r="C174">
         <v>39</v>
@@ -40047,27 +40155,27 @@
         <v>25.96029930038975</v>
       </c>
       <c r="E174">
-        <v>7.206375648844008</v>
+        <v>7.059279310727986</v>
       </c>
       <c r="F174">
-        <v>1.414366786805182</v>
+        <v>1.385496771525679</v>
       </c>
       <c r="G174">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="H174">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2018 - (sep 2022 - aug 2025)</t>
+          <t>2018 - (jul 2022 - jun 2025)</t>
         </is>
       </c>
       <c r="J174" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K174">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L174">
         <v>2025</v>
@@ -40080,10 +40188,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>1.005138260465068</v>
+        <v>1.003156527583956</v>
       </c>
       <c r="B175">
-        <v>0.5138260465068489</v>
+        <v>0.3156527583956459</v>
       </c>
       <c r="C175">
         <v>39</v>
@@ -40092,32 +40200,167 @@
         <v>25.96029930038975</v>
       </c>
       <c r="E175">
-        <v>7.280547535056363</v>
+        <v>7.132534385936188</v>
       </c>
       <c r="F175">
-        <v>1.428924208938773</v>
+        <v>1.399874254797179</v>
       </c>
       <c r="G175">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="H175">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2018 - (okt 2022 - sep 2025)</t>
+          <t>2018 - (aug 2022 - jul 2025)</t>
         </is>
       </c>
       <c r="J175" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K175">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L175">
         <v>2025</v>
       </c>
       <c r="M175" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>1.004303986358586</v>
+      </c>
+      <c r="B176">
+        <v>0.4303986358586309</v>
+      </c>
+      <c r="C176">
+        <v>39</v>
+      </c>
+      <c r="D176">
+        <v>25.96029930038975</v>
+      </c>
+      <c r="E176">
+        <v>7.204463762615585</v>
+      </c>
+      <c r="F176">
+        <v>1.413991548472711</v>
+      </c>
+      <c r="G176">
+        <v>-2.4</v>
+      </c>
+      <c r="H176">
+        <v>3.3</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2018 - (sep 2022 - aug 2025)</t>
+        </is>
+      </c>
+      <c r="J176" s="2">
+        <v>45870</v>
+      </c>
+      <c r="K176">
+        <v>8</v>
+      </c>
+      <c r="L176">
+        <v>2025</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>1.005103474209541</v>
+      </c>
+      <c r="B177">
+        <v>0.5103474209540604</v>
+      </c>
+      <c r="C177">
+        <v>39</v>
+      </c>
+      <c r="D177">
+        <v>25.96029930038975</v>
+      </c>
+      <c r="E177">
+        <v>7.27876303006354</v>
+      </c>
+      <c r="F177">
+        <v>1.428573971216549</v>
+      </c>
+      <c r="G177">
+        <v>-2.4</v>
+      </c>
+      <c r="H177">
+        <v>3.4</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2018 - (okt 2022 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J177" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K177">
+        <v>9</v>
+      </c>
+      <c r="L177">
+        <v>2025</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>1.00668727833583</v>
+      </c>
+      <c r="B178">
+        <v>0.6687278335830049</v>
+      </c>
+      <c r="C178">
+        <v>39</v>
+      </c>
+      <c r="D178">
+        <v>25.96029930038975</v>
+      </c>
+      <c r="E178">
+        <v>7.358588134759227</v>
+      </c>
+      <c r="F178">
+        <v>1.444240928135862</v>
+      </c>
+      <c r="G178">
+        <v>-2.3</v>
+      </c>
+      <c r="H178">
+        <v>3.6</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2018 - (nov 2022 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J178" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K178">
+        <v>10</v>
+      </c>
+      <c r="L178">
+        <v>2025</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>36_months</t>
         </is>
